--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Paper Title</t>
   </si>
@@ -42,12 +42,21 @@
     <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
   </si>
   <si>
+    <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
+    <t>Garmezy N</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
+    <t>Fall 1970</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
+  </si>
+  <si>
+    <t>Diagnosis by Prognosis</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -503,7 +515,7 @@
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -548,6 +560,29 @@
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2958465</v>
+      </c>
+      <c r="G3">
+        <v>2913999</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -583,25 +618,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -631,6 +666,14 @@
       </c>
       <c r="I2" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -663,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -693,6 +736,14 @@
       </c>
       <c r="F2" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +753,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -729,28 +780,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -761,28 +812,36 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +851,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -816,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -839,19 +898,27 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +928,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -874,17 +941,21 @@
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -892,7 +963,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Paper Title</t>
   </si>
@@ -45,22 +45,31 @@
     <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
   </si>
   <si>
+    <t>Thought disorder or speech disorder in schizophrenia?</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
     <t>Garmezy N</t>
   </si>
   <si>
+    <t>Chaika E.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
     <t>Fall 1970</t>
   </si>
   <si>
+    <t>1982</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
-    <t>Absnormal Rhyming</t>
+    <t>Abnormal Rhyming</t>
   </si>
   <si>
     <t>Absence of Topic</t>
@@ -78,6 +87,15 @@
     <t>Disruption on Flow of Ideas</t>
   </si>
   <si>
+    <t>Neologization</t>
+  </si>
+  <si>
+    <t>Word Salad</t>
+  </si>
+  <si>
+    <t>Aliteration</t>
+  </si>
+  <si>
     <t>Matching of Control with Schizophrenic</t>
   </si>
   <si>
@@ -129,13 +147,16 @@
     <t>Schizophrenic under Lobotomy</t>
   </si>
   <si>
-    <t>Difference with other Neurological Disorder</t>
+    <t>Difference with other Neurological Disorders</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
   </si>
   <si>
     <t>Diagnosis by Prognosis</t>
+  </si>
+  <si>
+    <t>Thought Disorder VS Speech Disorder</t>
   </si>
 </sst>
 </file>
@@ -500,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -547,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -570,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -583,6 +604,29 @@
       </c>
       <c r="G3">
         <v>2913999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44466</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -605,41 +649,53 @@
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -650,30 +706,53 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +762,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -706,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -726,16 +805,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -744,6 +823,14 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +840,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -780,28 +867,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -812,28 +899,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -842,6 +929,14 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +946,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -867,7 +962,7 @@
     <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48" style="3" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -875,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -898,19 +993,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -919,6 +1014,17 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -942,20 +1048,24 @@
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -963,10 +1073,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -974,7 +1084,18 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\Repos\PMEIC-2122\papers\stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F7CA7D-56E0-4014-B077-DF1B70EA7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="Problems" sheetId="5" r:id="rId5"/>
     <sheet name="Citations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Paper Title</t>
   </si>
@@ -96,6 +102,12 @@
     <t>Aliteration</t>
   </si>
   <si>
+    <t>Sum Value</t>
+  </si>
+  <si>
+    <t>Mean Value</t>
+  </si>
+  <si>
     <t>Matching of Control with Schizophrenic</t>
   </si>
   <si>
@@ -133,6 +145,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Count Times</t>
   </si>
   <si>
     <t>Restrictive Sample</t>
@@ -162,11 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +235,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,11 +245,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +331,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,123 +576,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44460</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44462</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44466</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2958465</v>
-      </c>
-      <c r="G3">
-        <v>2913999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44466</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44466</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -645,12 +586,125 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="88.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44460</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44462</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2958465</v>
+      </c>
+      <c r="G3">
+        <v>2913999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44466</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" style="3" customWidth="1"/>
@@ -660,7 +714,7 @@
     <col min="12" max="12" width="12.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -724,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -732,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -752,6 +806,76 @@
         <v>0.5</v>
       </c>
       <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -761,8 +885,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -771,7 +895,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" style="3" customWidth="1"/>
@@ -780,24 +904,24 @@
     <col min="6" max="6" width="15" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -817,7 +941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -825,12 +949,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +997,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -849,49 +1007,47 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="27.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="26" style="3" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -899,31 +1055,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -931,12 +1087,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -945,8 +1130,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -955,7 +1140,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
@@ -965,27 +1150,27 @@
     <col min="7" max="7" width="49.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -993,22 +1178,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1016,7 +1201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1024,7 +1209,27 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1033,17 +1238,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
@@ -1051,21 +1256,21 @@
     <col min="5" max="5" width="39.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1073,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1084,10 +1289,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1300,21 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Desktop\Repos\PMEIC-2122\papers\stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F7CA7D-56E0-4014-B077-DF1B70EA7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
     <sheet name="Problems" sheetId="5" r:id="rId5"/>
     <sheet name="Citations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>Paper Title</t>
   </si>
@@ -45,6 +39,9 @@
     <t>Days Taken</t>
   </si>
   <si>
+    <t>Age-Related Differences in Formal Thought Disorderin Chronically Hospitalized Schizophrenic Patients:A Cross-Sectional Study Across Nine Decades</t>
+  </si>
+  <si>
     <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
     <t>Thought disorder or speech disorder in schizophrenia?</t>
   </si>
   <si>
+    <t>Harvey F, Leibman L, Al E.</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -63,6 +63,9 @@
     <t>Chaika E.</t>
   </si>
   <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -72,6 +75,18 @@
     <t>1982</t>
   </si>
   <si>
+    <t>Poverty of Speech</t>
+  </si>
+  <si>
+    <t>Disruption on Flow of Ideas</t>
+  </si>
+  <si>
+    <t>Distractibility</t>
+  </si>
+  <si>
+    <t>Absence of Self Monitoring</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -87,12 +102,6 @@
     <t>Preoccupation with Syntax Rules</t>
   </si>
   <si>
-    <t>Absence of Self Monitoring</t>
-  </si>
-  <si>
-    <t>Disruption on Flow of Ideas</t>
-  </si>
-  <si>
     <t>Neologization</t>
   </si>
   <si>
@@ -108,6 +117,18 @@
     <t>Mean Value</t>
   </si>
   <si>
+    <t>Diagnostic Interview</t>
+  </si>
+  <si>
+    <t>Clinical History Chart Review</t>
+  </si>
+  <si>
+    <t>Open Interview</t>
+  </si>
+  <si>
+    <t>Open Interview with Caregivers</t>
+  </si>
+  <si>
     <t>Matching of Control with Schizophrenic</t>
   </si>
   <si>
@@ -120,6 +141,15 @@
     <t>Unusual Story</t>
   </si>
   <si>
+    <t>Scale  for  Assessment  of  Thought,  Language, and Communication</t>
+  </si>
+  <si>
+    <t>Mini-Mental  State  examination</t>
+  </si>
+  <si>
+    <t>DSM-III-R Criterion</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -148,6 +178,12 @@
   </si>
   <si>
     <t>Count Times</t>
+  </si>
+  <si>
+    <t>No Control Group</t>
+  </si>
+  <si>
+    <t>Different Environments</t>
   </si>
   <si>
     <t>Restrictive Sample</t>
@@ -177,8 +213,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,19 +284,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -299,7 +330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,27 +362,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,24 +396,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -576,26 +571,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -623,22 +619,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="F2" s="2">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -646,22 +642,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="F3" s="2">
-        <v>2958465</v>
+        <v>44462</v>
       </c>
       <c r="G3">
-        <v>2913999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -669,18 +665,41 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
       </c>
       <c r="F4" s="2">
+        <v>2958465</v>
+      </c>
+      <c r="G4">
+        <v>2913999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
         <v>44466</v>
       </c>
-      <c r="G4">
+      <c r="F5" s="2">
+        <v>44466</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -690,66 +709,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -760,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>0.5</v>
@@ -768,114 +796,146 @@
       <c r="F2" s="3">
         <v>0.5</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3">
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.5</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.75</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -885,43 +945,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -929,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -938,18 +1014,30 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -957,29 +1045,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -988,6 +1067,47 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -997,57 +1117,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="27.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1055,39 +1189,48 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1095,32 +1238,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1130,47 +1290,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1178,57 +1346,77 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1238,82 +1426,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>Paper Title</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
   </si>
   <si>
+    <t>Speech Fluency and Schizophrenic Negative Signs</t>
+  </si>
+  <si>
     <t>Thought disorder or speech disorder in schizophrenia?</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>Garmezy N</t>
   </si>
   <si>
+    <t>Alpert M, Kotsaftis A, Pouget E.</t>
+  </si>
+  <si>
     <t>Chaika E.</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
     <t>Preoccupation with Syntax Rules</t>
   </si>
   <si>
+    <t>Alogia</t>
+  </si>
+  <si>
     <t>Neologization</t>
   </si>
   <si>
@@ -141,13 +150,19 @@
     <t>Unusual Story</t>
   </si>
   <si>
+    <t>Semi-Structured Interview</t>
+  </si>
+  <si>
+    <t>Review of Altered Tapes</t>
+  </si>
+  <si>
     <t>Scale  for  Assessment  of  Thought,  Language, and Communication</t>
   </si>
   <si>
     <t>Mini-Mental  State  examination</t>
   </si>
   <si>
-    <t>DSM-III-R Criterion</t>
+    <t>DSM Criterion</t>
   </si>
   <si>
     <t>Speech Duration</t>
@@ -174,6 +189,15 @@
     <t>Parenthetical Remarks Identified</t>
   </si>
   <si>
+    <t>Schedule for Affective Disorders and Schizophrenia</t>
+  </si>
+  <si>
+    <t>Response Latency</t>
+  </si>
+  <si>
+    <t>Scale for the Assessment of Negative Symptoms</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -199,6 +223,9 @@
   </si>
   <si>
     <t>Difference with other Neurological Disorders</t>
+  </si>
+  <si>
+    <t>Accoustic Imprecision</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -572,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -584,7 +611,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -619,10 +646,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <v>44468</v>
@@ -642,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>44460</v>
@@ -665,10 +692,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -688,18 +715,41 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44471</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
         <v>44466</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="2">
         <v>44466</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -731,53 +781,57 @@
     <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -797,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -826,7 +880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -834,79 +888,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.5</v>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
         <v>0.5</v>
@@ -915,27 +942,74 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.75</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="H9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -946,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -966,38 +1040,46 @@
     <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1017,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1037,7 +1119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1045,46 +1127,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1109,6 +1176,47 @@
       </c>
       <c r="J8" s="3">
         <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1132,7 +1240,7 @@
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
@@ -1141,47 +1249,59 @@
     <col min="11" max="11" width="18.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="32.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1189,16 +1309,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1206,31 +1326,31 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1238,49 +1358,81 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1291,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1310,35 +1462,39 @@
     <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1346,13 +1502,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1360,22 +1516,22 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1383,41 +1539,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="J5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1449,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1474,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1485,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1495,21 +1665,29 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Paper Title</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
   </si>
   <si>
+    <t>Speech and Language Processing: An Introduction to Natural Language Processing, Computational Linguistics, and Speech Recognition</t>
+  </si>
+  <si>
     <t>Speech Fluency and Schizophrenic Negative Signs</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>Garmezy N</t>
   </si>
   <si>
+    <t>Martin J</t>
+  </si>
+  <si>
     <t>Alpert M, Kotsaftis A, Pouget E.</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
     <t>Fall 1970</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>1982</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>Diagnosis by Prognosis</t>
+  </si>
+  <si>
+    <t>Understanding Language</t>
   </si>
   <si>
     <t>Thought Disorder VS Speech Disorder</t>
@@ -599,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -646,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>44468</v>
@@ -669,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>44460</v>
@@ -692,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -715,16 +727,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="F5" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -738,18 +750,41 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44471</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
         <v>44466</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>44466</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -760,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -792,43 +827,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -895,12 +930,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
@@ -909,75 +938,45 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
         <v>0.5</v>
@@ -986,30 +985,74 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.75</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="H10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1020,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1049,34 +1092,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1134,12 +1177,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -1148,45 +1185,24 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1216,6 +1232,41 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1226,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1259,46 +1310,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1309,13 +1360,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1326,28 +1377,28 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1365,21 +1416,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
@@ -1388,51 +1424,74 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1443,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1470,28 +1529,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1502,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1516,19 +1575,19 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1546,9 +1605,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
@@ -1557,36 +1613,47 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1597,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1611,24 +1678,28 @@
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1636,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1644,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1655,39 +1726,53 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>Paper Title</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Age-Related Differences in Formal Thought Disorderin Chronically Hospitalized Schizophrenic Patients:A Cross-Sectional Study Across Nine Decades</t>
   </si>
   <si>
+    <t>Attenuated Frontal Activation During a Verbal Fluency Taskin Patients With Schizophrenia</t>
+  </si>
+  <si>
     <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>Harvey F, Leibman L, Al E.</t>
   </si>
   <si>
+    <t>Curtis V, Bullmore E, Brammer M, et al.</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
     <t>1997</t>
   </si>
   <si>
+    <t>1998</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -102,6 +111,12 @@
     <t>Absence of Self Monitoring</t>
   </si>
   <si>
+    <t>Cerebral Frontal Region Attenuated</t>
+  </si>
+  <si>
+    <t>Medial Parietal Cortex Strengthen</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -147,6 +162,12 @@
     <t>Open Interview with Caregivers</t>
   </si>
   <si>
+    <t>Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
     <t>Matching of Control with Schizophrenic</t>
   </si>
   <si>
@@ -174,6 +195,18 @@
     <t>DSM Criterion</t>
   </si>
   <si>
+    <t>Cerabral Blood Flow</t>
+  </si>
+  <si>
+    <t>Schedule for Affective Disorders and Schizophrenia</t>
+  </si>
+  <si>
+    <t>Scale for the Assessment of Positive Symptoms</t>
+  </si>
+  <si>
+    <t>Scale for the Assessment of Negative Symptoms</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -198,15 +231,9 @@
     <t>Parenthetical Remarks Identified</t>
   </si>
   <si>
-    <t>Schedule for Affective Disorders and Schizophrenia</t>
-  </si>
-  <si>
     <t>Response Latency</t>
   </si>
   <si>
-    <t>Scale for the Assessment of Negative Symptoms</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -219,13 +246,16 @@
     <t>Different Environments</t>
   </si>
   <si>
+    <t>Small Sample</t>
+  </si>
+  <si>
+    <t>MRI Account for Perturbances</t>
+  </si>
+  <si>
+    <t>Schizophrenic under Medication</t>
+  </si>
+  <si>
     <t>Restrictive Sample</t>
-  </si>
-  <si>
-    <t>Small Sample</t>
-  </si>
-  <si>
-    <t>Schizophrenic under Medication</t>
   </si>
   <si>
     <t>Schizophrenic under Lobotomy</t>
@@ -611,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -623,7 +653,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -658,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>44468</v>
@@ -681,19 +711,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>44460</v>
+        <v>44472</v>
       </c>
       <c r="F3" s="2">
-        <v>44462</v>
+        <v>44473</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -704,19 +734,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="F4" s="2">
-        <v>2958465</v>
+        <v>44462</v>
       </c>
       <c r="G4">
-        <v>2913999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -727,19 +757,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>44471</v>
+        <v>44466</v>
       </c>
       <c r="F5" s="2">
-        <v>44472</v>
+        <v>2958465</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2913999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -750,16 +780,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="F6" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -773,18 +803,41 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
         <v>44466</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>44466</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -811,62 +864,70 @@
     <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -886,44 +947,50 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>-0.5</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -931,96 +998,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.5</v>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="N7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
       </c>
       <c r="E10" s="3">
         <v>0.5</v>
@@ -1029,30 +1060,86 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.75</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="J11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1063,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1079,50 +1166,58 @@
     <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1142,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1150,27 +1245,36 @@
         <v>7</v>
       </c>
       <c r="G3" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1178,66 +1282,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1252,21 +1329,68 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
       </c>
       <c r="L10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1277,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1292,67 +1416,75 @@
     <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="45.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1360,56 +1492,74 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1417,81 +1567,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1516,44 +1680,48 @@
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="44.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>80</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1561,13 +1729,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1575,30 +1743,39 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1606,54 +1783,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1687,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1714,9 +1902,6 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -1725,8 +1910,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1736,8 +1921,8 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>62</v>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1747,6 +1932,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -1755,24 +1943,32 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>Paper Title</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Age-Related Differences in Formal Thought Disorderin Chronically Hospitalized Schizophrenic Patients:A Cross-Sectional Study Across Nine Decades</t>
   </si>
   <si>
+    <t>An introduction to latent semantic analysis</t>
+  </si>
+  <si>
     <t>Attenuated Frontal Activation During a Verbal Fluency Taskin Patients With Schizophrenia</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>Harvey F, Leibman L, Al E.</t>
   </si>
   <si>
+    <t>Landauer T. Foltz P. Laham D</t>
+  </si>
+  <si>
     <t>Curtis V, Bullmore E, Brammer M, et al.</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
     <t>Open Interview with Caregivers</t>
   </si>
   <si>
+    <t>Latent Semantic Analysis</t>
+  </si>
+  <si>
     <t>Magnetic Resonance Imaging</t>
   </si>
   <si>
@@ -265,6 +274,12 @@
   </si>
   <si>
     <t>Accoustic Imprecision</t>
+  </si>
+  <si>
+    <t>LSA Potential</t>
+  </si>
+  <si>
+    <t>LSA Reach</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -688,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>44468</v>
@@ -711,19 +726,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="F3" s="2">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -734,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>44460</v>
+        <v>44472</v>
       </c>
       <c r="F4" s="2">
-        <v>44462</v>
+        <v>44473</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -757,19 +772,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="F5" s="2">
-        <v>2958465</v>
+        <v>44462</v>
       </c>
       <c r="G5">
-        <v>2913999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -780,19 +795,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>44471</v>
+        <v>44466</v>
       </c>
       <c r="F6" s="2">
-        <v>44472</v>
+        <v>2958465</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2913999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -803,16 +818,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="F7" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -826,18 +841,41 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44471</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
         <v>44466</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>44466</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
@@ -848,7 +886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -882,49 +920,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -954,12 +992,6 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
@@ -968,26 +1000,11 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.5</v>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -997,6 +1014,27 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
@@ -1013,12 +1051,6 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
@@ -1027,81 +1059,45 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <v>0.5</v>
@@ -1116,30 +1112,80 @@
         <v>1</v>
       </c>
       <c r="I11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.75</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="J12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1150,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1166,58 +1212,62 @@
     <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1237,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1247,42 +1297,45 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
       <c r="I4" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="J5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1290,107 +1343,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J11" s="3">
         <v>1.5</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J12" s="3">
         <v>0.75</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1401,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1436,52 +1503,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1492,13 +1559,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1507,24 +1574,6 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1534,29 +1583,23 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>71</v>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1566,6 +1609,30 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
@@ -1582,21 +1649,6 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
@@ -1605,57 +1657,80 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1666,7 +1741,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1694,31 +1769,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1729,10 +1804,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1741,15 +1816,6 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1760,19 +1826,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1782,6 +1842,21 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
@@ -1798,9 +1873,6 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -1809,39 +1881,50 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="K8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1852,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1864,30 +1947,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="144.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1895,80 +1986,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
   <si>
     <t>Paper Title</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
   </si>
   <si>
+    <t>Reduced Sensitivity to Linguistic Context in Schizophrenic Thought Disorder: Evidence From On-Line Monitoring for Words in Linguistically Anomalous Sentences</t>
+  </si>
+  <si>
     <t>Speech and Language Processing: An Introduction to Natural Language Processing, Computational Linguistics, and Speech Recognition</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>Garmezy N</t>
   </si>
   <si>
+    <t>Kuperberg G. Mcguire P. David A.</t>
+  </si>
+  <si>
     <t>Martin J</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
     <t>Matching of Control with Schizophrenic</t>
   </si>
   <si>
+    <t>Verbal Fluency Test</t>
+  </si>
+  <si>
     <t>Reading</t>
   </si>
   <si>
@@ -189,6 +198,12 @@
     <t>Unusual Story</t>
   </si>
   <si>
+    <t>On-Line Word Monitoring Task</t>
+  </si>
+  <si>
+    <t>Off-Line Anomaly Detection Task</t>
+  </si>
+  <si>
     <t>Semi-Structured Interview</t>
   </si>
   <si>
@@ -240,6 +255,33 @@
     <t>Parenthetical Remarks Identified</t>
   </si>
   <si>
+    <t>Reaction Time</t>
+  </si>
+  <si>
+    <t>Reaction Time - Anticipations</t>
+  </si>
+  <si>
+    <t>Reaction Time - Misses</t>
+  </si>
+  <si>
+    <t>Anomaly Detection Percentage</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Score</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Repetitions</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Persevations</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Neologisms</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Associations</t>
+  </si>
+  <si>
     <t>Response Latency</t>
   </si>
   <si>
@@ -286,6 +328,12 @@
   </si>
   <si>
     <t>Diagnosis by Prognosis</t>
+  </si>
+  <si>
+    <t>Schizophrenia Heterogenity</t>
+  </si>
+  <si>
+    <t>Schizophrenia as a State</t>
   </si>
   <si>
     <t>Understanding Language</t>
@@ -656,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -667,7 +715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
@@ -703,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>44468</v>
@@ -726,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>44473</v>
@@ -749,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>44472</v>
@@ -772,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>44460</v>
@@ -795,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>44466</v>
@@ -818,16 +866,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="F7" s="2">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -841,16 +889,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="F8" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -864,18 +912,41 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44471</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>44466</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>44466</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
@@ -886,7 +957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -897,7 +968,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
@@ -920,49 +991,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1051,6 +1122,15 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
@@ -1059,12 +1139,6 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
@@ -1073,87 +1147,51 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -1162,30 +1200,80 @@
         <v>1</v>
       </c>
       <c r="I12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.75</v>
       </c>
-      <c r="J12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -1196,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1207,7 +1295,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
@@ -1216,58 +1304,70 @@
     <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1287,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1298,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1314,8 +1414,11 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1325,17 +1428,17 @@
       <c r="J5" s="3">
         <v>0.5</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
       <c r="L5" s="3">
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1343,83 +1446,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1443,21 +1519,83 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.75</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="K13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1468,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1479,7 +1617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
@@ -1495,63 +1633,99 @@
     <col min="15" max="15" width="18.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="32.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>78</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1559,16 +1733,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1576,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1584,25 +1758,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1610,31 +1784,31 @@
         <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1642,95 +1816,157 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1741,7 +1977,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1752,7 +1988,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
@@ -1769,31 +2005,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1804,10 +2040,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1826,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1843,19 +2079,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1873,6 +2109,12 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -1881,9 +2123,6 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -1892,39 +2131,50 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="K9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1935,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1946,39 +2196,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="144.7109375" customWidth="1"/>
+    <col min="2" max="2" width="157.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1986,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1994,13 +2252,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2008,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2016,10 +2274,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2027,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2038,48 +2296,68 @@
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="120">
   <si>
     <t>Paper Title</t>
   </si>
@@ -39,88 +39,124 @@
     <t>Days Taken</t>
   </si>
   <si>
+    <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
+  </si>
+  <si>
+    <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
+  </si>
+  <si>
+    <t>Thought disorder or speech disorder in schizophrenia?</t>
+  </si>
+  <si>
     <t>Age-Related Differences in Formal Thought Disorderin Chronically Hospitalized Schizophrenic Patients:A Cross-Sectional Study Across Nine Decades</t>
   </si>
   <si>
+    <t>Speech Fluency and Schizophrenic Negative Signs</t>
+  </si>
+  <si>
+    <t>Speech and Language Processing: An Introduction to Natural Language Processing, Computational Linguistics, and Speech Recognition</t>
+  </si>
+  <si>
+    <t>Attenuated Frontal Activation During a Verbal Fluency Taskin Patients With Schizophrenia</t>
+  </si>
+  <si>
     <t>An introduction to latent semantic analysis</t>
   </si>
   <si>
-    <t>Attenuated Frontal Activation During a Verbal Fluency Taskin Patients With Schizophrenia</t>
-  </si>
-  <si>
-    <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
-  </si>
-  <si>
-    <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
-  </si>
-  <si>
     <t>Reduced Sensitivity to Linguistic Context in Schizophrenic Thought Disorder: Evidence From On-Line Monitoring for Words in Linguistically Anomalous Sentences</t>
   </si>
   <si>
-    <t>Speech and Language Processing: An Introduction to Natural Language Processing, Computational Linguistics, and Speech Recognition</t>
-  </si>
-  <si>
-    <t>Speech Fluency and Schizophrenic Negative Signs</t>
-  </si>
-  <si>
-    <t>Thought disorder or speech disorder in schizophrenia?</t>
+    <t>Automated analysis of free speech predicts psychosis onset in high-risk youths</t>
+  </si>
+  <si>
+    <t>Clemmer, Edward J.</t>
+  </si>
+  <si>
+    <t>Garmezy N</t>
+  </si>
+  <si>
+    <t>Chaika E.</t>
   </si>
   <si>
     <t>Harvey F, Leibman L, Al E.</t>
   </si>
   <si>
+    <t>Alpert M, Kotsaftis A, Pouget E.</t>
+  </si>
+  <si>
+    <t>Martin J</t>
+  </si>
+  <si>
+    <t>Curtis V, Bullmore E, Brammer M, et al.</t>
+  </si>
+  <si>
     <t>Landauer T. Foltz P. Laham D</t>
   </si>
   <si>
-    <t>Curtis V, Bullmore E, Brammer M, et al.</t>
-  </si>
-  <si>
-    <t>Clemmer, Edward J.</t>
-  </si>
-  <si>
-    <t>Garmezy N</t>
-  </si>
-  <si>
     <t>Kuperberg G. Mcguire P. David A.</t>
   </si>
   <si>
-    <t>Martin J</t>
-  </si>
-  <si>
-    <t>Alpert M, Kotsaftis A, Pouget E.</t>
-  </si>
-  <si>
-    <t>Chaika E.</t>
+    <t>Bedi G. Carrillo F. Cecchi G. et al.</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>Fall 1970</t>
+  </si>
+  <si>
+    <t>1982</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>1998</t>
   </si>
   <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>Fall 1970</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>1982</t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Gibberish</t>
+  </si>
+  <si>
+    <t>Abnormal Rhyming</t>
+  </si>
+  <si>
+    <t>Absence of Topic</t>
+  </si>
+  <si>
+    <t>Disruption of Syntax Rules</t>
+  </si>
+  <si>
+    <t>Preoccupation with Syntax Rules</t>
+  </si>
+  <si>
+    <t>Absence of Self Monitoring</t>
+  </si>
+  <si>
+    <t>Disruption on Flow of Ideas</t>
+  </si>
+  <si>
+    <t>Neologization</t>
+  </si>
+  <si>
+    <t>Word Salad</t>
+  </si>
+  <si>
+    <t>Aliteration</t>
   </si>
   <si>
     <t>Poverty of Speech</t>
   </si>
   <si>
-    <t>Disruption on Flow of Ideas</t>
-  </si>
-  <si>
     <t>Distractibility</t>
   </si>
   <si>
-    <t>Absence of Self Monitoring</t>
+    <t>Alogia</t>
   </si>
   <si>
     <t>Cerebral Frontal Region Attenuated</t>
@@ -129,31 +165,7 @@
     <t>Medial Parietal Cortex Strengthen</t>
   </si>
   <si>
-    <t>Gibberish</t>
-  </si>
-  <si>
-    <t>Abnormal Rhyming</t>
-  </si>
-  <si>
-    <t>Absence of Topic</t>
-  </si>
-  <si>
-    <t>Disruption of Syntax Rules</t>
-  </si>
-  <si>
-    <t>Preoccupation with Syntax Rules</t>
-  </si>
-  <si>
-    <t>Alogia</t>
-  </si>
-  <si>
-    <t>Neologization</t>
-  </si>
-  <si>
-    <t>Word Salad</t>
-  </si>
-  <si>
-    <t>Aliteration</t>
+    <t>Loss of Coherence</t>
   </si>
   <si>
     <t>Sum Value</t>
@@ -162,6 +174,18 @@
     <t>Mean Value</t>
   </si>
   <si>
+    <t>Matching of Control with Schizophrenic</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Retelling</t>
+  </si>
+  <si>
+    <t>Unusual Story</t>
+  </si>
+  <si>
     <t>Diagnostic Interview</t>
   </si>
   <si>
@@ -174,40 +198,67 @@
     <t>Open Interview with Caregivers</t>
   </si>
   <si>
+    <t>Semi-Structured Interview</t>
+  </si>
+  <si>
+    <t>Review of Altered Tapes</t>
+  </si>
+  <si>
+    <t>Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>Verbal Fluency Test</t>
+  </si>
+  <si>
     <t>Latent Semantic Analysis</t>
   </si>
   <si>
-    <t>Magnetic Resonance Imaging</t>
-  </si>
-  <si>
-    <t>Positron Emission Tomography</t>
-  </si>
-  <si>
-    <t>Matching of Control with Schizophrenic</t>
-  </si>
-  <si>
-    <t>Verbal Fluency Test</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Retelling</t>
-  </si>
-  <si>
-    <t>Unusual Story</t>
-  </si>
-  <si>
     <t>On-Line Word Monitoring Task</t>
   </si>
   <si>
     <t>Off-Line Anomaly Detection Task</t>
   </si>
   <si>
-    <t>Semi-Structured Interview</t>
-  </si>
-  <si>
-    <t>Review of Altered Tapes</t>
+    <t>Structured Interview for Prodromal Syndromes / Scale of Prodromal Symptoms</t>
+  </si>
+  <si>
+    <t>Open Structured Interview</t>
+  </si>
+  <si>
+    <t>Transcript Ponctuatuon Removal</t>
+  </si>
+  <si>
+    <t>Transcript Lemmatization</t>
+  </si>
+  <si>
+    <t>Part of Speech Tagging</t>
+  </si>
+  <si>
+    <t>Speech Duration</t>
+  </si>
+  <si>
+    <t>Speech Syllable Count</t>
+  </si>
+  <si>
+    <t>Silent Pauses Identified</t>
+  </si>
+  <si>
+    <t>Silent Pauses Classified</t>
+  </si>
+  <si>
+    <t>Filled Pauses Identified</t>
+  </si>
+  <si>
+    <t>Repeats Identified</t>
+  </si>
+  <si>
+    <t>False Starts Identified</t>
+  </si>
+  <si>
+    <t>Parenthetical Remarks Identified</t>
   </si>
   <si>
     <t>Scale  for  Assessment  of  Thought,  Language, and Communication</t>
@@ -219,42 +270,21 @@
     <t>DSM Criterion</t>
   </si>
   <si>
+    <t>Schedule for Affective Disorders and Schizophrenia</t>
+  </si>
+  <si>
+    <t>Response Latency</t>
+  </si>
+  <si>
+    <t>Scale for the Assessment of Negative Symptoms</t>
+  </si>
+  <si>
     <t>Cerabral Blood Flow</t>
   </si>
   <si>
-    <t>Schedule for Affective Disorders and Schizophrenia</t>
-  </si>
-  <si>
     <t>Scale for the Assessment of Positive Symptoms</t>
   </si>
   <si>
-    <t>Scale for the Assessment of Negative Symptoms</t>
-  </si>
-  <si>
-    <t>Speech Duration</t>
-  </si>
-  <si>
-    <t>Speech Syllable Count</t>
-  </si>
-  <si>
-    <t>Silent Pauses Identified</t>
-  </si>
-  <si>
-    <t>Silent Pauses Classified</t>
-  </si>
-  <si>
-    <t>Filled Pauses Identified</t>
-  </si>
-  <si>
-    <t>Repeats Identified</t>
-  </si>
-  <si>
-    <t>False Starts Identified</t>
-  </si>
-  <si>
-    <t>Parenthetical Remarks Identified</t>
-  </si>
-  <si>
     <t>Reaction Time</t>
   </si>
   <si>
@@ -282,7 +312,16 @@
     <t>Verbal Fluency Associations</t>
   </si>
   <si>
-    <t>Response Latency</t>
+    <t>CHR Status</t>
+  </si>
+  <si>
+    <t>First Order Sentence Coherence</t>
+  </si>
+  <si>
+    <t>Second Order Sentence Coherence</t>
+  </si>
+  <si>
+    <t>Number of Determiners Normalized by Phrase Length</t>
   </si>
   <si>
     <t>X</t>
@@ -291,31 +330,43 @@
     <t>Count Times</t>
   </si>
   <si>
+    <t>Restrictive Sample</t>
+  </si>
+  <si>
+    <t>Small Sample</t>
+  </si>
+  <si>
+    <t>Schizophrenic under Medication</t>
+  </si>
+  <si>
+    <t>Schizophrenic under Lobotomy</t>
+  </si>
+  <si>
+    <t>Difference with other Neurological Disorders</t>
+  </si>
+  <si>
     <t>No Control Group</t>
   </si>
   <si>
     <t>Different Environments</t>
   </si>
   <si>
-    <t>Small Sample</t>
+    <t>Accoustic Imprecision</t>
   </si>
   <si>
     <t>MRI Account for Perturbances</t>
   </si>
   <si>
-    <t>Schizophrenic under Medication</t>
-  </si>
-  <si>
-    <t>Restrictive Sample</t>
-  </si>
-  <si>
-    <t>Schizophrenic under Lobotomy</t>
-  </si>
-  <si>
-    <t>Difference with other Neurological Disorders</t>
-  </si>
-  <si>
-    <t>Accoustic Imprecision</t>
+    <t>Classifying Schizophrenic</t>
+  </si>
+  <si>
+    <t>Diagnosis by Prognosis</t>
+  </si>
+  <si>
+    <t>Thought Disorder VS Speech Disorder</t>
+  </si>
+  <si>
+    <t>Understanding Language</t>
   </si>
   <si>
     <t>LSA Potential</t>
@@ -324,22 +375,10 @@
     <t>LSA Reach</t>
   </si>
   <si>
-    <t>Classifying Schizophrenic</t>
-  </si>
-  <si>
-    <t>Diagnosis by Prognosis</t>
-  </si>
-  <si>
     <t>Schizophrenia Heterogenity</t>
   </si>
   <si>
     <t>Schizophrenia as a State</t>
-  </si>
-  <si>
-    <t>Understanding Language</t>
-  </si>
-  <si>
-    <t>Thought Disorder VS Speech Disorder</t>
   </si>
 </sst>
 </file>
@@ -704,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -751,19 +790,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="F2" s="2">
-        <v>44469</v>
+        <v>44462</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -774,19 +813,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="F3" s="2">
-        <v>44475</v>
+        <v>2958465</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>2913999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -797,19 +836,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
-        <v>44472</v>
+        <v>44466</v>
       </c>
       <c r="F4" s="2">
-        <v>44473</v>
+        <v>44466</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -820,19 +859,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="F5" s="2">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -843,19 +882,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="F6" s="2">
-        <v>2958465</v>
+        <v>44471</v>
       </c>
       <c r="G6">
-        <v>2913999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -866,16 +905,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
-        <v>44475</v>
+        <v>44471</v>
       </c>
       <c r="F7" s="2">
-        <v>44476</v>
+        <v>44472</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -889,16 +928,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="F8" s="2">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -912,19 +951,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="F9" s="2">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -935,19 +974,42 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
-        <v>44466</v>
+        <v>44475</v>
       </c>
       <c r="F10" s="2">
-        <v>44466</v>
+        <v>44476</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44478</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -969,74 +1031,78 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1047,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="3">
         <v>0.5</v>
@@ -1055,8 +1121,17 @@
       <c r="F2" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1064,217 +1139,228 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="C4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-0.5</v>
+      <c r="H5" s="3">
+        <v>0.5</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.5</v>
-      </c>
       <c r="M5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="3">
         <v>0.75</v>
       </c>
-      <c r="J13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0.5</v>
+      <c r="N14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1296,78 +1382,98 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="74.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="30.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1375,7 +1481,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -1384,218 +1490,274 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
       <c r="J5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O13" s="3">
         <v>1.5</v>
       </c>
-      <c r="K12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="P13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O14" s="3">
         <v>0.75</v>
       </c>
-      <c r="K13" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1618,114 +1780,130 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="27.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="25.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="16.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="65.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="45.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="26.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="27.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="49.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1733,16 +1911,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1750,223 +1943,240 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="K8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="S10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="N13" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="X12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="3">
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1977,7 +2187,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1989,15 +2199,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2005,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2040,10 +2250,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2061,14 +2280,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2078,20 +2291,11 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2101,6 +2305,9 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
@@ -2109,12 +2316,6 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -2123,6 +2324,15 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -2131,9 +2341,6 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
@@ -2142,39 +2349,53 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2185,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2197,14 +2418,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2212,28 +2433,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2243,6 +2464,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
@@ -2251,11 +2475,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2265,6 +2486,9 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
@@ -2273,9 +2497,6 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
@@ -2284,9 +2505,6 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
@@ -2295,11 +2513,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>88</v>
+      <c r="F7" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2309,9 +2524,6 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
@@ -2320,6 +2532,12 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
@@ -2328,36 +2546,47 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
   <si>
     <t>Paper Title</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Automated analysis of free speech predicts psychosis onset in high-risk youths</t>
   </si>
   <si>
+    <t>Prediction of psychosis across protocols and risk cohorts using automated language analysis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t>Bedi G. Carrillo F. Cecchi G. et al.</t>
   </si>
   <si>
+    <t>Corcoran C. Carrillo F. Fernández-Slezak D. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -322,6 +331,18 @@
   </si>
   <si>
     <t>Number of Determiners Normalized by Phrase Length</t>
+  </si>
+  <si>
+    <t>K Inter-word Distance</t>
+  </si>
+  <si>
+    <t>Frequency of POSs</t>
+  </si>
+  <si>
+    <t>Sentence Length</t>
+  </si>
+  <si>
+    <t>Frequency of WHs</t>
   </si>
   <si>
     <t>X</t>
@@ -743,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -755,7 +776,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="157.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -790,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -813,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -836,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -859,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -882,10 +903,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -905,10 +926,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -928,10 +949,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -951,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -974,10 +995,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -997,10 +1018,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1010,6 +1031,29 @@
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44480</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44483</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1054,52 +1098,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1257,109 +1301,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.75</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.75</v>
       </c>
-      <c r="N14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="N15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1370,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1410,67 +1468,67 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1625,86 +1683,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P13" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1</v>
-      </c>
-      <c r="W13" s="3">
+    <row r="12" spans="1:23">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>0.5</v>
@@ -1734,30 +1747,98 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>2</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.75</v>
       </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1768,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1809,101 +1890,117 @@
     <col min="29" max="29" width="30.7109375" style="3" customWidth="1"/>
     <col min="30" max="30" width="31.7109375" style="3" customWidth="1"/>
     <col min="31" max="31" width="49.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="17.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>103</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1911,31 +2008,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1943,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1951,7 +2048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1959,16 +2056,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1976,22 +2073,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1999,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2007,25 +2104,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2033,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2041,34 +2138,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2076,107 +2173,139 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="3">
         <v>2</v>
       </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
         <v>2</v>
       </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1</v>
-      </c>
-      <c r="W13" s="3">
-        <v>1</v>
-      </c>
-      <c r="X13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="3">
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2187,7 +2316,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2215,31 +2344,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2250,19 +2379,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2281,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2292,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2306,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2325,13 +2454,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2350,10 +2479,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2364,38 +2493,49 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2406,7 +2546,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2433,28 +2573,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2465,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2476,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2487,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2514,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2533,10 +2673,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2547,10 +2687,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2561,32 +2701,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>Paper Title</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Prediction of psychosis across protocols and risk cohorts using automated language analysis</t>
   </si>
   <si>
+    <t>A machine learning approach to predicting psychosis using semantic density and latent content analysis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>Corcoran C. Carrillo F. Fernández-Slezak D. et al.</t>
   </si>
   <si>
+    <t>Rezaii N. Walker E. Wolff P.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>2018</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -165,9 +174,6 @@
     <t>Distractibility</t>
   </si>
   <si>
-    <t>Alogia</t>
-  </si>
-  <si>
     <t>Cerebral Frontal Region Attenuated</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t>Loss of Coherence</t>
   </si>
   <si>
+    <t>Auditory Hallucinations</t>
+  </si>
+  <si>
     <t>Sum Value</t>
   </si>
   <si>
@@ -246,6 +255,15 @@
     <t>Part of Speech Tagging</t>
   </si>
   <si>
+    <t>Latent Content Analysis</t>
+  </si>
+  <si>
+    <t>Vector Unpacking</t>
+  </si>
+  <si>
+    <t>Probe Word Clustering</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -345,6 +363,12 @@
     <t>Frequency of WHs</t>
   </si>
   <si>
+    <t>Semantic Density</t>
+  </si>
+  <si>
+    <t>Auditory Cluster</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -376,6 +400,9 @@
   </si>
   <si>
     <t>MRI Account for Perturbances</t>
+  </si>
+  <si>
+    <t>Overfitting</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -764,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -811,10 +838,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -834,10 +861,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -857,10 +884,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -880,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -903,10 +930,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -926,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -949,10 +976,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -972,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -995,10 +1022,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1018,10 +1045,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1041,10 +1068,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1054,6 +1081,29 @@
       </c>
       <c r="G12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44483</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44484</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1087,10 +1137,10 @@
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1098,52 +1148,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1236,9 +1286,6 @@
       <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
@@ -1255,10 +1302,10 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
       <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1297,7 +1344,7 @@
       <c r="M11" s="3">
         <v>0.5</v>
       </c>
-      <c r="R11" s="3">
+      <c r="Q11" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1311,87 +1358,51 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2</v>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>0.5</v>
       </c>
       <c r="F15" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G15" s="3">
         <v>0.5</v>
       </c>
       <c r="H15" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <v>0.5</v>
@@ -1403,21 +1414,74 @@
         <v>0.5</v>
       </c>
       <c r="M15" s="3">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.75</v>
       </c>
-      <c r="N15" s="3">
+      <c r="D16" s="3">
         <v>0.5</v>
       </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="E16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1428,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1461,77 +1525,89 @@
     <col min="21" max="21" width="30.7109375" style="3" customWidth="1"/>
     <col min="22" max="22" width="24.7109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="22.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+        <v>77</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1551,7 +1627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1559,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1567,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1587,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1601,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1609,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1629,7 +1705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1640,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1657,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1683,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1706,86 +1782,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3">
         <v>1.5</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
       </c>
       <c r="F15" s="3">
         <v>0.5</v>
@@ -1815,30 +1843,116 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.75</v>
       </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1849,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1894,113 +2008,121 @@
     <col min="33" max="33" width="17.7109375" style="3" customWidth="1"/>
     <col min="34" max="34" width="15.7109375" style="3" customWidth="1"/>
     <col min="35" max="35" width="16.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+        <v>113</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2008,31 +2130,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2040,7 +2162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2048,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2056,16 +2178,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2073,22 +2195,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2096,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2104,25 +2226,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2130,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2138,34 +2260,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2173,19 +2295,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2193,119 +2315,142 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
         <v>2</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="3">
         <v>2</v>
       </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
         <v>2</v>
       </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="3">
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2316,7 +2461,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2337,41 +2482,45 @@
     <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2379,22 +2528,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2402,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2410,10 +2559,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2421,13 +2570,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2435,10 +2584,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2446,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2454,16 +2603,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2471,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2479,13 +2628,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2493,10 +2642,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2504,38 +2653,61 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2546,7 +2718,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2573,28 +2745,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2605,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2616,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2627,7 +2799,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2654,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2673,10 +2845,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2687,10 +2859,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2709,35 +2881,43 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
   <si>
     <t>Paper Title</t>
   </si>
@@ -75,6 +75,9 @@
     <t>A machine learning approach to predicting psychosis using semantic density and latent content analysis</t>
   </si>
   <si>
+    <t>Phonetic measures of reduced tongue movement correlate with negative symptom severity in hospitalized patients with first-episode schizophrenia-spectrum disorders</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>Rezaii N. Walker E. Wolff P.</t>
   </si>
   <si>
+    <t>Covington M. Lunden S. Cristofaro S. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t>2019</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -186,6 +195,12 @@
     <t>Auditory Hallucinations</t>
   </si>
   <si>
+    <t>Reduced Facial Muscle Activity</t>
+  </si>
+  <si>
+    <t>Speech Apathy</t>
+  </si>
+  <si>
     <t>Sum Value</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Probe Word Clustering</t>
   </si>
   <si>
+    <t>Spectral Decomposition</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -369,6 +387,15 @@
     <t>Auditory Cluster</t>
   </si>
   <si>
+    <t>Positive and Negative Syndrome Scale</t>
+  </si>
+  <si>
+    <t>F1 Formant</t>
+  </si>
+  <si>
+    <t>F2 Formant</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -403,6 +430,9 @@
   </si>
   <si>
     <t>Overfitting</t>
+  </si>
+  <si>
+    <t>Innapropriate Interview Type</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -791,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -802,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
@@ -838,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -861,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -884,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -907,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -930,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -953,10 +983,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -976,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -999,10 +1029,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1022,10 +1052,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1045,10 +1075,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1068,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1091,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1104,6 +1134,29 @@
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44488</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44488</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1124,7 +1177,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="3" customWidth="1"/>
@@ -1141,62 +1194,70 @@
     <col min="16" max="16" width="33.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="30.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1225,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1233,7 +1294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1256,7 +1317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1276,7 +1337,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1287,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1295,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1309,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1317,7 +1378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1334,7 +1395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1348,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1362,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1379,83 +1440,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.75</v>
-      </c>
       <c r="D16" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>0.5</v>
       </c>
       <c r="F16" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G16" s="3">
         <v>0.5</v>
       </c>
       <c r="H16" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>0.5</v>
@@ -1467,21 +1489,86 @@
         <v>0.5</v>
       </c>
       <c r="M16" s="3">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="3">
         <v>0.8</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1492,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1503,7 +1590,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
@@ -1528,86 +1615,90 @@
     <col min="24" max="24" width="23.7109375" style="3" customWidth="1"/>
     <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="21.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1627,7 +1718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1635,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1643,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1663,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1677,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1685,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1705,7 +1796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1716,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1733,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1759,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1782,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1802,95 +1893,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1</v>
-      </c>
-      <c r="W15" s="3">
-        <v>2</v>
-      </c>
-      <c r="X15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0.5</v>
@@ -1920,39 +1945,122 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
+        <v>2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.75</v>
       </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1</v>
-      </c>
-      <c r="V16" s="3">
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-      <c r="X16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="3">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1963,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1974,7 +2082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
@@ -2010,119 +2118,131 @@
     <col min="35" max="35" width="16.7109375" style="3" customWidth="1"/>
     <col min="36" max="36" width="16.7109375" style="3" customWidth="1"/>
     <col min="37" max="37" width="16.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="36.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+        <v>121</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2130,31 +2250,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2162,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2170,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2178,16 +2298,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2195,22 +2315,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2218,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2226,25 +2346,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2252,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2260,34 +2380,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2295,19 +2415,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2315,19 +2435,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2335,122 +2455,151 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
         <v>2</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
         <v>2</v>
       </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
         <v>2</v>
       </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1</v>
-      </c>
-      <c r="X15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="3">
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3">
         <v>2</v>
       </c>
-      <c r="AH15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="3">
+      <c r="AH16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2461,7 +2610,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2472,7 +2621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="3" customWidth="1"/>
@@ -2483,44 +2632,48 @@
     <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>136</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2528,22 +2681,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2551,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2559,10 +2712,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2570,13 +2723,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2584,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2595,7 +2748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2603,16 +2756,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2620,7 +2773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2628,13 +2781,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2642,10 +2795,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2653,10 +2806,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2664,50 +2817,76 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2718,7 +2897,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2729,7 +2908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="157.7109375" customWidth="1"/>
+    <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
@@ -2745,28 +2924,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2777,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2788,7 +2967,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2799,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2826,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2845,10 +3024,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2859,10 +3038,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2881,7 +3060,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2892,32 +3071,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
   <si>
     <t>Paper Title</t>
   </si>
@@ -42,12 +42,12 @@
     <t>Psycholinguistic aspects of pauses and temporal patterns in schizophrenic speech</t>
   </si>
   <si>
+    <t>Thought disorder or speech disorder in schizophrenia?</t>
+  </si>
+  <si>
     <t>Process and Reactive Schizophrenia: Some Conceptions and Issues</t>
   </si>
   <si>
-    <t>Thought disorder or speech disorder in schizophrenia?</t>
-  </si>
-  <si>
     <t>Age-Related Differences in Formal Thought Disorderin Chronically Hospitalized Schizophrenic Patients:A Cross-Sectional Study Across Nine Decades</t>
   </si>
   <si>
@@ -78,15 +78,18 @@
     <t>Phonetic measures of reduced tongue movement correlate with negative symptom severity in hospitalized patients with first-episode schizophrenia-spectrum disorders</t>
   </si>
   <si>
+    <t>Making a distinction between schizophrenia and bipolar disorder based on temporal parameters in spontaneous speech</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
+    <t>Chaika E.</t>
+  </si>
+  <si>
     <t>Garmezy N</t>
   </si>
   <si>
-    <t>Chaika E.</t>
-  </si>
-  <si>
     <t>Harvey F, Leibman L, Al E.</t>
   </si>
   <si>
@@ -117,15 +120,18 @@
     <t>Covington M. Lunden S. Cristofaro S. et al.</t>
   </si>
   <si>
+    <t>Gosztolya G. Bagi A. Szalóki S et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
+    <t>1982</t>
+  </si>
+  <si>
     <t>Fall 1970</t>
   </si>
   <si>
-    <t>1982</t>
-  </si>
-  <si>
     <t>1997</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>2012</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -282,6 +291,12 @@
     <t>Spectral Decomposition</t>
   </si>
   <si>
+    <t>Memory Task</t>
+  </si>
+  <si>
+    <t>Structured Interview</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -396,6 +411,15 @@
     <t>F2 Formant</t>
   </si>
   <si>
+    <t>Articulation Rate</t>
+  </si>
+  <si>
+    <t>Speech Tempo</t>
+  </si>
+  <si>
+    <t>Duration of Utterance</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -438,10 +462,10 @@
     <t>Classifying Schizophrenic</t>
   </si>
   <si>
+    <t>Thought Disorder VS Speech Disorder</t>
+  </si>
+  <si>
     <t>Diagnosis by Prognosis</t>
-  </si>
-  <si>
-    <t>Thought Disorder VS Speech Disorder</t>
   </si>
   <si>
     <t>Understanding Language</t>
@@ -821,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -868,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -891,19 +915,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
       </c>
       <c r="F3" s="2">
-        <v>2958465</v>
+        <v>44466</v>
       </c>
       <c r="G3">
-        <v>2913999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -914,19 +938,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
       </c>
       <c r="F4" s="2">
-        <v>44466</v>
+        <v>2958465</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2913999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -937,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -960,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -983,10 +1007,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1006,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1029,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1052,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1075,10 +1099,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1098,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1121,10 +1145,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1144,10 +1168,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1157,6 +1181,29 @@
       </c>
       <c r="G14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44488</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44489</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1203,58 +1250,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1293,6 +1340,21 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1">
@@ -1301,21 +1363,6 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1">
@@ -1454,89 +1501,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="3">
         <v>0.5</v>
       </c>
-      <c r="F16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="3">
-        <v>4</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="T15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>0.5</v>
       </c>
       <c r="F17" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G17" s="3">
         <v>0.5</v>
       </c>
       <c r="H17" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>0.5</v>
@@ -1548,27 +1550,86 @@
         <v>0.5</v>
       </c>
       <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="3">
         <v>0.8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="O18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1579,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1616,89 +1677,97 @@
     <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="21.7109375" style="3" customWidth="1"/>
     <col min="27" max="27" width="22.7109375" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>89</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1718,7 +1787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1726,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1734,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1754,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1768,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1776,7 +1845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1796,7 +1865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1807,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1824,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1850,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1873,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1893,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1904,98 +1973,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="15" spans="1:29">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3">
         <v>1.5</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>3</v>
-      </c>
-      <c r="T16" s="3">
-        <v>2</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1</v>
-      </c>
-      <c r="V16" s="3">
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>2</v>
-      </c>
-      <c r="X16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>0.5</v>
@@ -2025,42 +2028,134 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3">
         <v>0.75</v>
       </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2071,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2121,128 +2216,140 @@
     <col min="38" max="38" width="36.7109375" style="3" customWidth="1"/>
     <col min="39" max="39" width="10.7109375" style="3" customWidth="1"/>
     <col min="40" max="40" width="10.7109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="17.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" style="3" customWidth="1"/>
+    <col min="43" max="43" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+        <v>129</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2250,31 +2357,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2282,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:43">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2290,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:43">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2298,16 +2405,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2315,22 +2422,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2338,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:43">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2346,25 +2453,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2372,7 +2479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:43">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2380,34 +2487,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2415,19 +2522,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2435,19 +2542,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2455,16 +2562,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2472,134 +2579,169 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>4</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2</v>
       </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
         <v>2</v>
       </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1</v>
-      </c>
-      <c r="V16" s="3">
-        <v>1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-      <c r="X16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="3">
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3">
         <v>2</v>
       </c>
-      <c r="AH16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="3">
+      <c r="AH17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2610,7 +2752,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2640,37 +2782,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2681,19 +2823,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2702,6 +2844,9 @@
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2711,9 +2856,6 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -2723,10 +2865,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2737,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2756,13 +2898,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2781,10 +2923,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2795,7 +2937,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2806,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2817,16 +2959,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2837,56 +2979,67 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D17" s="3">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2897,7 +3050,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2910,8 +3063,8 @@
   <cols>
     <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
@@ -2924,28 +3077,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2956,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2967,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2978,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3005,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3024,10 +3177,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3038,10 +3191,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3060,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3079,32 +3232,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="157">
   <si>
     <t>Paper Title</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Making a distinction between schizophrenia and bipolar disorder based on temporal parameters in spontaneous speech</t>
   </si>
   <si>
+    <t>Assessment of Parkinson's disease medication state through automatic speech analysis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t>Gosztolya G. Bagi A. Szalóki S et al.</t>
   </si>
   <si>
+    <t>Pompili A. Solera-Ureña R. Abad A et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -295,6 +301,9 @@
   </si>
   <si>
     <t>Structured Interview</t>
+  </si>
+  <si>
+    <t>Subject to Subject Evaluation</t>
   </si>
   <si>
     <t>Speech Duration</t>
@@ -845,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -892,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -915,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -938,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -961,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -984,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1007,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1030,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1053,10 +1062,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1076,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1099,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1122,10 +1131,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1145,10 +1154,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1168,10 +1177,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1191,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1203,6 +1212,29 @@
         <v>44489</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44490</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
@@ -1213,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1250,58 +1282,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1515,89 +1547,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>0.5</v>
       </c>
       <c r="F18" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G18" s="3">
         <v>0.5</v>
       </c>
       <c r="H18" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <v>0.5</v>
@@ -1609,27 +1590,86 @@
         <v>0.5</v>
       </c>
       <c r="M18" s="3">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="3">
         <v>0.8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="3">
         <v>0.75</v>
       </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1640,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1679,95 +1719,99 @@
     <col min="27" max="27" width="22.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="11.7109375" style="3" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="29.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1787,7 +1831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1795,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1803,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1823,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1837,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1845,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1865,7 +1909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1876,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1893,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1919,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1942,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1962,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1973,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1987,104 +2031,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="16" spans="1:30">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
         <v>1.5</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
       </c>
       <c r="F18" s="3">
         <v>0.5</v>
@@ -2114,48 +2083,140 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3">
         <v>0.75</v>
       </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2226,127 +2287,127 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -2357,28 +2418,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2405,13 +2466,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2422,19 +2483,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2453,22 +2514,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2487,31 +2548,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2522,16 +2583,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2542,16 +2603,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2562,13 +2623,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2579,16 +2640,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2599,149 +2660,157 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
         <v>5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N18" s="3">
         <v>2</v>
       </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
         <v>2</v>
       </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="3">
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3">
         <v>2</v>
       </c>
-      <c r="AH17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="3">
+      <c r="AH18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2752,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2782,37 +2851,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2823,19 +2892,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2846,7 +2915,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2865,10 +2934,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2879,7 +2948,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2898,13 +2967,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2923,10 +2992,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2937,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2948,7 +3017,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2959,16 +3028,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2979,19 +3048,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3002,44 +3071,52 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3050,7 +3127,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3077,28 +3154,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3109,7 +3186,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3120,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3131,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3158,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3177,10 +3254,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3191,10 +3268,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3213,7 +3290,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3240,32 +3317,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
   <si>
     <t>Paper Title</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Assessment of Parkinson's disease medication state through automatic speech analysis</t>
   </si>
   <si>
+    <t>Automatic Analysis of the Emotional Content of Speech in Daylong Child-Centered Recordings from a Neonatal Intensive Care Unit</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
     <t>Pompili A. Solera-Ureña R. Abad A et al.</t>
   </si>
   <si>
+    <t>Vaaras E. Ahlqvist-Björkroth S. Drossos K et al</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>Gibberish</t>
@@ -854,7 +863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -901,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -924,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -947,10 +956,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -970,10 +979,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -993,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1016,10 +1025,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1039,10 +1048,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1062,10 +1071,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1085,10 +1094,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1108,10 +1117,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1131,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1154,10 +1163,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1177,10 +1186,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1200,10 +1209,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1223,10 +1232,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1236,6 +1245,29 @@
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44492</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44492</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1282,58 +1314,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1555,89 +1587,38 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="3">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D19" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
         <v>0.5</v>
       </c>
       <c r="F19" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G19" s="3">
         <v>0.5</v>
       </c>
       <c r="H19" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <v>0.5</v>
@@ -1649,27 +1630,86 @@
         <v>0.5</v>
       </c>
       <c r="M19" s="3">
+        <v>4</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="3">
         <v>0.8</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>0.75</v>
       </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1680,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1727,88 +1767,88 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -2042,107 +2082,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <v>2</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>1</v>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>0.5</v>
@@ -2172,51 +2131,140 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3">
+        <v>2</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>2</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3">
         <v>0.75</v>
       </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="3">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2227,7 +2275,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2287,127 +2335,127 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -2418,28 +2466,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2466,13 +2514,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2483,19 +2531,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2514,22 +2562,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2548,31 +2596,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2583,16 +2631,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2603,16 +2651,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2623,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2640,16 +2688,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2660,22 +2708,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2686,131 +2734,139 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
+    <row r="17" spans="1:43">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
         <v>5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <v>2</v>
       </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
         <v>2</v>
       </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="3">
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3">
         <v>2</v>
       </c>
-      <c r="AH18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="3">
+      <c r="AH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2821,7 +2877,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2851,37 +2907,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2892,19 +2948,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2915,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2934,10 +2990,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2948,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2967,13 +3023,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2992,10 +3048,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3006,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3017,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3028,16 +3084,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3048,19 +3104,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3071,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3082,41 +3138,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3127,7 +3191,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3154,28 +3218,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3186,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3197,7 +3261,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3208,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3235,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3254,10 +3318,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3268,10 +3332,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3290,7 +3354,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3325,32 +3389,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="170">
   <si>
     <t>Paper Title</t>
   </si>
@@ -87,6 +87,9 @@
     <t>Automatic Analysis of the Emotional Content of Speech in Daylong Child-Centered Recordings from a Neonatal Intensive Care Unit</t>
   </si>
   <si>
+    <t>Lower speech connectedness linked to incidence of psychosis in people at clinical high risk</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
     <t>Vaaras E. Ahlqvist-Björkroth S. Drossos K et al</t>
   </si>
   <si>
+    <t>Spencer T. Thompson B. Oliver D. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -315,6 +321,12 @@
     <t>Subject to Subject Evaluation</t>
   </si>
   <si>
+    <t>Word Graph Analysis</t>
+  </si>
+  <si>
+    <t>Comprehensive Assessment of At-Risk Mental States</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -438,6 +450,24 @@
     <t>Duration of Utterance</t>
   </si>
   <si>
+    <t>Word Graph: Number of Edges</t>
+  </si>
+  <si>
+    <t>Word Graph: Number of Nodes in LCC</t>
+  </si>
+  <si>
+    <t>Word Graph: Number of nodes in LSC</t>
+  </si>
+  <si>
+    <t>Word Graph: Probability of LCC</t>
+  </si>
+  <si>
+    <t>Word Graph: Probability of LSC</t>
+  </si>
+  <si>
+    <t>Thought and Language Index</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -450,10 +480,10 @@
     <t>Small Sample</t>
   </si>
   <si>
-    <t>Schizophrenic under Medication</t>
-  </si>
-  <si>
-    <t>Schizophrenic under Lobotomy</t>
+    <t>Patients under Medication</t>
+  </si>
+  <si>
+    <t>Patients under Lobotomy</t>
   </si>
   <si>
     <t>Difference with other Neurological Disorders</t>
@@ -863,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -910,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -933,10 +963,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -956,10 +986,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -979,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1002,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1025,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1048,10 +1078,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1071,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1094,10 +1124,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1117,10 +1147,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1140,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1163,10 +1193,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1186,10 +1216,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1209,10 +1239,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1232,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1255,10 +1285,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1268,6 +1298,29 @@
       </c>
       <c r="G17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44492</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44493</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1314,58 +1367,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1595,89 +1648,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="3">
-        <v>4</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>2</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>2</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D20" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" s="3">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="G20" s="3">
         <v>0.5</v>
       </c>
       <c r="H20" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="3">
         <v>0.5</v>
@@ -1689,27 +1700,86 @@
         <v>0.5</v>
       </c>
       <c r="M20" s="3">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="3">
         <v>0.8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="3">
         <v>0.75</v>
       </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1720,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1760,98 +1830,106 @@
     <col min="28" max="28" width="11.7109375" style="3" customWidth="1"/>
     <col min="29" max="29" width="20.7109375" style="3" customWidth="1"/>
     <col min="30" max="30" width="29.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="49.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1871,7 +1949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1879,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1887,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1907,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1921,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1929,7 +2007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1949,7 +2027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1960,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1977,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2003,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2026,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2046,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2057,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2071,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2082,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2090,107 +2168,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+    <row r="18" spans="1:32">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>3</v>
-      </c>
-      <c r="T19" s="3">
-        <v>2</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>2</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0.5</v>
@@ -2208,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
@@ -2220,52 +2232,153 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>2</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>0.75</v>
       </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>1</v>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2388,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2328,137 +2441,161 @@
     <col min="41" max="41" width="17.7109375" style="3" customWidth="1"/>
     <col min="42" max="42" width="12.7109375" style="3" customWidth="1"/>
     <col min="43" max="43" width="21.7109375" style="3" customWidth="1"/>
+    <col min="44" max="44" width="27.7109375" style="3" customWidth="1"/>
+    <col min="45" max="45" width="34.7109375" style="3" customWidth="1"/>
+    <col min="46" max="46" width="34.7109375" style="3" customWidth="1"/>
+    <col min="47" max="47" width="30.7109375" style="3" customWidth="1"/>
+    <col min="48" max="48" width="30.7109375" style="3" customWidth="1"/>
+    <col min="49" max="49" width="26.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:49">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+        <v>142</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2466,31 +2603,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2498,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2506,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2514,16 +2651,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2531,22 +2668,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2554,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2562,25 +2699,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2588,7 +2725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2596,34 +2733,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2631,19 +2768,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2651,19 +2788,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2671,16 +2808,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2688,19 +2825,19 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2708,25 +2845,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2734,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:49">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2742,131 +2879,178 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
+    <row r="18" spans="1:49">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW18" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>5</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6</v>
+      </c>
+      <c r="N20" s="3">
         <v>2</v>
       </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3">
         <v>2</v>
       </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="3">
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3">
         <v>2</v>
       </c>
-      <c r="AH19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="3">
+      <c r="AH20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2877,7 +3061,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2891,8 +3075,8 @@
     <col min="2" max="2" width="162.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="44.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="3" customWidth="1"/>
@@ -2907,37 +3091,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2948,19 +3132,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2971,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2990,10 +3174,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3004,7 +3188,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3023,13 +3207,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3048,10 +3232,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3062,7 +3246,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3073,7 +3257,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3084,16 +3268,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3104,19 +3288,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3127,7 +3311,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3146,41 +3330,55 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D20" s="3">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3191,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3218,28 +3416,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3250,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3261,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3272,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3299,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3318,10 +3516,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3332,10 +3530,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3354,7 +3552,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3397,32 +3595,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="177">
   <si>
     <t>Paper Title</t>
   </si>
@@ -90,6 +90,9 @@
     <t>Lower speech connectedness linked to incidence of psychosis in people at clinical high risk</t>
   </si>
   <si>
+    <t>Thought disorder measured as random speech structure classifies negative symptoms and schizophrenia diagnosis 6 months in advance</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>Spencer T. Thompson B. Oliver D. et al.</t>
   </si>
   <si>
+    <t>Mota N. Copelli M. Ribeiro S.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -325,6 +334,18 @@
   </si>
   <si>
     <t>Comprehensive Assessment of At-Risk Mental States</t>
+  </si>
+  <si>
+    <t>Dream Report</t>
+  </si>
+  <si>
+    <t>Memory preceding Dream Report</t>
+  </si>
+  <si>
+    <t>Earliest Memory Report</t>
+  </si>
+  <si>
+    <t>Affective Image Story</t>
   </si>
   <si>
     <t>Speech Duration</t>
@@ -893,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -940,10 +961,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -963,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -986,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1009,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1032,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1055,10 +1076,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1078,10 +1099,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1101,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1124,10 +1145,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1147,10 +1168,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1170,10 +1191,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1193,10 +1214,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1216,10 +1237,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1239,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1262,10 +1283,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1285,10 +1306,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1308,10 +1329,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1321,6 +1342,29 @@
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44493</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44493</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1367,58 +1411,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1665,121 +1709,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="3">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
         <v>0.75</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="3">
         <v>0.75</v>
       </c>
-      <c r="F21" s="3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O22" s="3">
         <v>0.75</v>
       </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1790,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1832,104 +1893,120 @@
     <col min="30" max="30" width="29.7109375" style="3" customWidth="1"/>
     <col min="31" max="31" width="19.7109375" style="3" customWidth="1"/>
     <col min="32" max="32" width="49.7109375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="29.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+        <v>104</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1949,7 +2026,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1957,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1965,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1985,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1999,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2007,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2027,7 +2104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2038,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2055,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2081,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2104,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2124,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2135,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2149,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2160,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:36">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2168,7 +2245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:36">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2191,131 +2268,62 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+    <row r="19" spans="1:36">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
         <v>2</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>2</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
       </c>
       <c r="L21" s="3">
         <v>1</v>
@@ -2327,58 +2335,177 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="T21" s="3">
+        <v>2</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>2</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>0.75</v>
       </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
         <v>0.875</v>
       </c>
-      <c r="T21" s="3">
-        <v>1</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>0.5</v>
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2515,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AW21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2454,145 +2581,145 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -2603,28 +2730,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -2651,13 +2778,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -2668,19 +2795,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:49">
@@ -2699,22 +2826,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2733,31 +2860,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2768,16 +2895,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2788,16 +2915,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2808,13 +2935,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2825,16 +2952,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2845,22 +2972,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2887,170 +3014,196 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
         <v>2</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
         <v>6</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <v>2</v>
       </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
         <v>2</v>
       </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="3">
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3">
         <v>2</v>
       </c>
-      <c r="AH20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="3">
+      <c r="AH21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3061,7 +3214,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3091,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3132,19 +3285,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3155,7 +3308,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3174,10 +3327,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3188,7 +3341,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3207,13 +3360,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3232,10 +3385,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3246,7 +3399,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3257,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3268,16 +3421,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3288,19 +3441,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3311,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3338,47 +3491,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
         <v>2</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3389,7 +3556,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3416,28 +3583,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3448,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3459,7 +3626,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3470,7 +3637,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3497,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3516,10 +3683,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3530,10 +3697,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3552,7 +3719,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3603,32 +3770,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="188">
   <si>
     <t>Paper Title</t>
   </si>
@@ -93,6 +93,9 @@
     <t>Thought disorder measured as random speech structure classifies negative symptoms and schizophrenia diagnosis 6 months in advance</t>
   </si>
   <si>
+    <t>Graph analysis of dream reports is especially informative about psychosis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
     <t>Mota N. Copelli M. Ribeiro S.</t>
   </si>
   <si>
+    <t>Mota N. Furtado R. Maia P et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -186,6 +192,9 @@
     <t>2017</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -487,6 +496,30 @@
   </si>
   <si>
     <t>Thought and Language Index</t>
+  </si>
+  <si>
+    <t>Word Graph: Number of Nodes</t>
+  </si>
+  <si>
+    <t>Word Graph: Number of Repeated Edges</t>
+  </si>
+  <si>
+    <t>Word Graph: Number of Parallel Edges</t>
+  </si>
+  <si>
+    <t>Word Graph: Size and Number of Cycles</t>
+  </si>
+  <si>
+    <t>Word Graph: Average Total Degree</t>
+  </si>
+  <si>
+    <t>Word Graph: Global Attributes</t>
+  </si>
+  <si>
+    <t>Word Graph: Average Clustering Coefficient</t>
+  </si>
+  <si>
+    <t>Brief Psychiatric Rating Scale</t>
   </si>
   <si>
     <t>X</t>
@@ -914,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -961,10 +994,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -984,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1007,10 +1040,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1030,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1053,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1076,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1099,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1122,10 +1155,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1145,10 +1178,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1168,10 +1201,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1191,10 +1224,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1214,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1237,10 +1270,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1260,10 +1293,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1283,10 +1316,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1306,10 +1339,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1329,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1352,10 +1385,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1364,6 +1397,29 @@
         <v>44493</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44496</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44496</v>
+      </c>
+      <c r="G20">
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1411,58 +1467,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1726,121 +1782,138 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G21" s="3">
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3">
         <v>0.5</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K20" s="3">
         <v>0.5</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
-        <v>2</v>
+      <c r="M20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D22" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0.6666666666666666</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="3">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="G22" s="3">
         <v>0.5</v>
       </c>
       <c r="H22" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0.5</v>
       </c>
       <c r="K22" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L22" s="3">
         <v>0.5</v>
       </c>
       <c r="M22" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.75</v>
       </c>
-      <c r="N22" s="3">
+      <c r="D23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="N23" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <v>0.75</v>
       </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1851,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1904,106 +1977,106 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -2294,125 +2367,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P21" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T21" s="3">
-        <v>2</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1</v>
-      </c>
-      <c r="W21" s="3">
-        <v>2</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ21" s="3">
+    <row r="20" spans="1:36">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
         <v>0.5</v>
@@ -2430,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
@@ -2442,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>1</v>
@@ -2454,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="S22" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U22" s="3">
         <v>1</v>
@@ -2466,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X22" s="3">
         <v>1</v>
@@ -2490,21 +2473,128 @@
         <v>1</v>
       </c>
       <c r="AE22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF22" s="3">
         <v>0.5</v>
       </c>
       <c r="AG22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AI22" s="3">
         <v>0.5</v>
       </c>
       <c r="AJ22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2515,7 +2605,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW21"/>
+  <dimension ref="A1:BE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2574,155 +2664,187 @@
     <col min="47" max="47" width="30.7109375" style="3" customWidth="1"/>
     <col min="48" max="48" width="30.7109375" style="3" customWidth="1"/>
     <col min="49" max="49" width="26.7109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="27.7109375" style="3" customWidth="1"/>
+    <col min="51" max="51" width="36.7109375" style="3" customWidth="1"/>
+    <col min="52" max="52" width="36.7109375" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.7109375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="32.7109375" style="3" customWidth="1"/>
+    <col min="55" max="55" width="29.7109375" style="3" customWidth="1"/>
+    <col min="56" max="56" width="42.7109375" style="3" customWidth="1"/>
+    <col min="57" max="57" width="30.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49">
+        <v>158</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2730,31 +2852,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2762,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2770,7 +2892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2778,16 +2900,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2795,22 +2917,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2818,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2826,25 +2948,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2852,7 +2974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2860,34 +2982,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2895,19 +3017,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2915,19 +3037,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2935,16 +3057,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2952,19 +3074,19 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2972,25 +3094,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2998,7 +3120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:57">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3006,7 +3128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:57">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3014,28 +3136,28 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3043,167 +3165,235 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>2</v>
       </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
         <v>6</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>2</v>
       </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
         <v>2</v>
       </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="3">
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1</v>
+      </c>
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3">
         <v>2</v>
       </c>
-      <c r="AH21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="3">
+      <c r="AH22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="3">
         <v>2</v>
       </c>
-      <c r="AM21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="3">
+      <c r="AV22" s="3">
         <v>2</v>
       </c>
-      <c r="AS21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AV21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW21" s="3">
+      <c r="AW22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3214,7 +3404,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3244,37 +3434,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3285,19 +3475,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3308,7 +3498,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3327,10 +3517,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3341,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3360,13 +3550,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3385,10 +3575,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3399,7 +3589,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3410,7 +3600,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3421,16 +3611,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3441,19 +3631,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3464,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3491,10 +3681,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3505,47 +3695,58 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
         <v>2</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3556,7 +3757,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3583,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3615,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3626,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3637,7 +3838,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3664,7 +3865,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3683,10 +3884,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3697,10 +3898,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3719,7 +3920,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3778,32 +3979,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="192">
   <si>
     <t>Paper Title</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Graph analysis of dream reports is especially informative about psychosis</t>
   </si>
   <si>
+    <t>Speech graphs provide a quantitative measure of thought disorder in psychosis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
     <t>Mota N. Furtado R. Maia P et al.</t>
   </si>
   <si>
+    <t>Mota N. Vasconcelos N. Lemos N et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -522,6 +528,9 @@
     <t>Brief Psychiatric Rating Scale</t>
   </si>
   <si>
+    <t>Word Graph: Node Identification</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -583,6 +592,9 @@
   </si>
   <si>
     <t>Schizophrenia as a State</t>
+  </si>
+  <si>
+    <t>System as an Aid to Clinicians</t>
   </si>
 </sst>
 </file>
@@ -947,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -994,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1017,10 +1029,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1040,10 +1052,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1063,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1086,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1109,10 +1121,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1132,10 +1144,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1155,10 +1167,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1178,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1201,10 +1213,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1224,10 +1236,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1247,10 +1259,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1270,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1293,10 +1305,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1316,10 +1328,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1339,10 +1351,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1362,10 +1374,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1385,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1408,10 +1420,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1421,6 +1433,29 @@
       </c>
       <c r="G20">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44496</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44497</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1467,58 +1502,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1799,121 +1834,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="3">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="G23" s="3">
         <v>0.5</v>
       </c>
       <c r="H23" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="J23" s="3">
         <v>0.5</v>
       </c>
       <c r="K23" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L23" s="3">
         <v>0.5</v>
       </c>
       <c r="M23" s="3">
-        <v>0.7857142857142857</v>
+        <v>6.5</v>
       </c>
       <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="N24" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O24" s="3">
         <v>0.75</v>
       </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1924,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1977,106 +2026,106 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -2384,125 +2433,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>2</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ22" s="3">
+    <row r="21" spans="1:36">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <v>0.5</v>
@@ -2520,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
@@ -2532,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="3">
         <v>1</v>
@@ -2544,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="S23" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" s="3">
         <v>1</v>
@@ -2556,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
@@ -2580,21 +2536,128 @@
         <v>1</v>
       </c>
       <c r="AE23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF23" s="3">
         <v>0.5</v>
       </c>
       <c r="AG23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI23" s="3">
         <v>0.5</v>
       </c>
       <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2605,7 +2668,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2672,179 +2735,183 @@
     <col min="55" max="55" width="29.7109375" style="3" customWidth="1"/>
     <col min="56" max="56" width="42.7109375" style="3" customWidth="1"/>
     <col min="57" max="57" width="30.7109375" style="3" customWidth="1"/>
+    <col min="58" max="58" width="31.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:58">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57">
+        <v>168</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2852,31 +2919,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2884,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:58">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2892,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:58">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2900,16 +2967,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2917,22 +2984,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2940,7 +3007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:58">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2948,25 +3015,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2974,7 +3041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:58">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2982,34 +3049,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3017,19 +3084,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3037,19 +3104,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3057,16 +3124,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3074,19 +3141,19 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3094,25 +3161,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3120,7 +3187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:58">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3128,7 +3195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:58">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3136,28 +3203,28 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3165,25 +3232,25 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3191,209 +3258,259 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AZ21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BC21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
         <v>2</v>
       </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
         <v>2</v>
       </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1</v>
-      </c>
-      <c r="V22" s="3">
-        <v>1</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1</v>
-      </c>
-      <c r="X22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="3">
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="3">
         <v>2</v>
       </c>
-      <c r="AH22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AS22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="3">
-        <v>3</v>
-      </c>
-      <c r="AU22" s="3">
+      <c r="AH23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU23" s="3">
         <v>2</v>
       </c>
-      <c r="AV22" s="3">
+      <c r="AV23" s="3">
         <v>2</v>
       </c>
-      <c r="AW22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BC22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="3">
+      <c r="AW23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="3">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC23" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="3">
+        <v>2</v>
+      </c>
+      <c r="BF23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3404,7 +3521,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3434,37 +3551,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3475,19 +3592,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3498,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3517,10 +3634,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3531,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3550,13 +3667,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3575,10 +3692,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3589,7 +3706,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3600,7 +3717,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3611,16 +3728,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3631,19 +3748,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3654,7 +3771,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3681,10 +3798,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3695,10 +3812,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3709,44 +3826,58 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3757,7 +3888,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3777,38 +3908,42 @@
     <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>190</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3816,10 +3951,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3827,10 +3962,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3838,10 +3973,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3849,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3857,7 +3992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3865,10 +4000,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3876,7 +4011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3884,13 +4019,13 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3898,13 +4033,13 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3912,7 +4047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3920,10 +4055,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3931,7 +4066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3939,7 +4074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3947,7 +4082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3955,7 +4090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3963,7 +4098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3971,7 +4106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3979,7 +4114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3987,32 +4122,46 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
   <si>
     <t>Paper Title</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Speech graphs provide a quantitative measure of thought disorder in psychosis</t>
   </si>
   <si>
+    <t>COVID-19 sentiment analysis via deep learning during the rise of novel cases</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
   </si>
   <si>
     <t>Mota N. Vasconcelos N. Lemos N et al.</t>
+  </si>
+  <si>
+    <t>Chandra R. Krishna A.</t>
   </si>
   <si>
     <t>1980</t>
@@ -959,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1006,10 +1012,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1029,10 +1035,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1052,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1075,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1098,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1121,10 +1127,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1144,10 +1150,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1167,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1190,10 +1196,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1213,10 +1219,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1236,10 +1242,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1259,10 +1265,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1282,10 +1288,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1305,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1328,10 +1334,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1351,10 +1357,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1374,10 +1380,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1397,10 +1403,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1420,10 +1426,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1443,10 +1449,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1455,6 +1461,29 @@
         <v>44497</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44497</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44498</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
@@ -1465,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1502,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1848,121 +1877,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D24" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="F24" s="3">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="G24" s="3">
         <v>0.5</v>
       </c>
       <c r="H24" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J24" s="3">
         <v>0.5</v>
       </c>
       <c r="K24" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L24" s="3">
         <v>0.5</v>
       </c>
       <c r="M24" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O25" s="3">
         <v>0.75</v>
       </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1973,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2026,106 +2063,106 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -2447,125 +2484,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1</v>
-      </c>
-      <c r="W23" s="3">
-        <v>2</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>1</v>
+    <row r="22" spans="1:36">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
         <v>0.5</v>
@@ -2583,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -2595,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
@@ -2607,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="S24" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" s="3">
         <v>1</v>
@@ -2619,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24" s="3">
         <v>1</v>
@@ -2643,21 +2581,128 @@
         <v>1</v>
       </c>
       <c r="AE24" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF24" s="3">
         <v>0.5</v>
       </c>
       <c r="AG24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH24" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI24" s="3">
         <v>0.5</v>
       </c>
       <c r="AJ24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2668,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF23"/>
+  <dimension ref="A1:BF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2743,172 +2788,172 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -2919,28 +2964,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:58">
@@ -2967,13 +3012,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:58">
@@ -2984,19 +3029,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:58">
@@ -3015,22 +3060,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:58">
@@ -3049,31 +3094,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:58">
@@ -3084,16 +3129,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:58">
@@ -3104,16 +3149,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:58">
@@ -3124,13 +3169,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:58">
@@ -3141,16 +3186,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:58">
@@ -3161,22 +3206,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:58">
@@ -3203,25 +3248,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:58">
@@ -3232,22 +3277,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:58">
@@ -3258,40 +3303,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:58">
@@ -3302,215 +3347,223 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>2</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
         <v>7</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N24" s="3">
         <v>2</v>
       </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
         <v>2</v>
       </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="3">
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="3">
         <v>2</v>
       </c>
-      <c r="AH23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="3">
+      <c r="AH24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="3">
         <v>4</v>
       </c>
-      <c r="AM23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="3">
+      <c r="AM24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="3">
         <v>4</v>
       </c>
-      <c r="AS23" s="3">
+      <c r="AS24" s="3">
         <v>4</v>
       </c>
-      <c r="AT23" s="3">
+      <c r="AT24" s="3">
         <v>4</v>
       </c>
-      <c r="AU23" s="3">
+      <c r="AU24" s="3">
         <v>2</v>
       </c>
-      <c r="AV23" s="3">
+      <c r="AV24" s="3">
         <v>2</v>
       </c>
-      <c r="AW23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="3">
+      <c r="AW24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="3">
         <v>2</v>
       </c>
-      <c r="AY23" s="3">
+      <c r="AY24" s="3">
         <v>2</v>
       </c>
-      <c r="AZ23" s="3">
+      <c r="AZ24" s="3">
         <v>2</v>
       </c>
-      <c r="BA23" s="3">
+      <c r="BA24" s="3">
         <v>2</v>
       </c>
-      <c r="BB23" s="3">
+      <c r="BB24" s="3">
         <v>2</v>
       </c>
-      <c r="BC23" s="3">
+      <c r="BC24" s="3">
         <v>2</v>
       </c>
-      <c r="BD23" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE23" s="3">
+      <c r="BD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="3">
         <v>2</v>
       </c>
-      <c r="BF23" s="3">
+      <c r="BF24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3521,7 +3574,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3551,37 +3604,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3592,19 +3645,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3615,7 +3668,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3634,10 +3687,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3648,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3667,13 +3720,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3692,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3706,7 +3759,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3717,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3728,16 +3781,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3748,19 +3801,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3771,7 +3824,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3798,10 +3851,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3812,10 +3865,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3826,7 +3879,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3837,47 +3890,55 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <v>11</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H24" s="3">
         <v>3</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3888,7 +3949,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3916,31 +3977,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3951,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3962,7 +4023,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3973,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4000,7 +4061,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4019,10 +4080,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4033,10 +4094,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4055,7 +4116,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4130,38 +4191,46 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
   <si>
     <t>Paper Title</t>
   </si>
@@ -102,6 +102,9 @@
     <t>COVID-19 sentiment analysis via deep learning during the rise of novel cases</t>
   </si>
   <si>
+    <t>Mining Twitter Data to Improve Detection of Schizophrenia</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
     <t>Chandra R. Krishna A.</t>
   </si>
   <si>
+    <t>McManus K. Mallory E. Goldfeder R. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>2014</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>Affective Image Story</t>
   </si>
   <si>
+    <t>Microblogging extracted Features</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -537,6 +549,21 @@
     <t>Word Graph: Node Identification</t>
   </si>
   <si>
+    <t>Microblogging: Number of Friends</t>
+  </si>
+  <si>
+    <t>Microblogging: Time of the Day for Posts</t>
+  </si>
+  <si>
+    <t>Microblogging: Time between Posts</t>
+  </si>
+  <si>
+    <t>Microblogging: Schizophrenia related Words</t>
+  </si>
+  <si>
+    <t>Microblogging: Emoticons Used</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -574,6 +601,9 @@
   </si>
   <si>
     <t>Innapropriate Interview Type</t>
+  </si>
+  <si>
+    <t>Unreliable Features</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -965,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1012,10 +1042,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1035,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1058,10 +1088,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1081,10 +1111,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1104,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1127,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1150,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1173,10 +1203,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1196,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1219,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1242,10 +1272,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1265,10 +1295,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1288,10 +1318,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1311,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1334,10 +1364,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1357,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1380,10 +1410,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1403,10 +1433,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1426,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1449,10 +1479,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1472,10 +1502,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1484,6 +1514,29 @@
         <v>44498</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44498</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44499</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
@@ -1494,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1531,58 +1584,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1885,121 +1938,129 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D25" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="3">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="G25" s="3">
         <v>0.5</v>
       </c>
       <c r="H25" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J25" s="3">
         <v>0.5</v>
       </c>
       <c r="K25" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L25" s="3">
         <v>0.5</v>
       </c>
       <c r="M25" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O26" s="3">
         <v>0.75</v>
       </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3">
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2010,7 +2071,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2056,116 +2117,120 @@
     <col min="34" max="34" width="29.7109375" style="3" customWidth="1"/>
     <col min="35" max="35" width="22.7109375" style="3" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="32.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2185,7 +2250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2193,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2201,7 +2266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2235,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2243,7 +2308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2263,7 +2328,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2274,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2291,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2317,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2340,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2360,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2371,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2385,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2396,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2404,7 +2469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2427,7 +2492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2453,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2470,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2484,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2492,125 +2557,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="3">
+    <row r="23" spans="1:37">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="3">
         <v>3.5</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P24" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-      <c r="W24" s="3">
-        <v>2</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
       </c>
       <c r="F25" s="3">
         <v>0.5</v>
@@ -2628,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>1</v>
@@ -2640,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="3">
         <v>1</v>
@@ -2652,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="S25" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" s="3">
         <v>1</v>
@@ -2664,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" s="3">
         <v>1</v>
@@ -2688,22 +2657,135 @@
         <v>1</v>
       </c>
       <c r="AE25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF25" s="3">
         <v>0.5</v>
       </c>
       <c r="AG25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI25" s="3">
         <v>0.5</v>
       </c>
       <c r="AJ25" s="3">
         <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF24"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2781,182 +2863,202 @@
     <col min="56" max="56" width="42.7109375" style="3" customWidth="1"/>
     <col min="57" max="57" width="30.7109375" style="3" customWidth="1"/>
     <col min="58" max="58" width="31.7109375" style="3" customWidth="1"/>
+    <col min="59" max="59" width="32.7109375" style="3" customWidth="1"/>
+    <col min="60" max="60" width="40.7109375" style="3" customWidth="1"/>
+    <col min="61" max="61" width="33.7109375" style="3" customWidth="1"/>
+    <col min="62" max="62" width="42.7109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="29.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
+        <v>175</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2964,31 +3066,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2996,7 +3098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3004,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3012,16 +3114,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3029,22 +3131,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3052,7 +3154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3060,25 +3162,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3086,7 +3188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3094,34 +3196,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3129,19 +3231,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3149,19 +3251,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3169,16 +3271,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3186,19 +3288,19 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3206,25 +3308,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3232,7 +3334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3240,7 +3342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3248,28 +3350,28 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3277,25 +3379,25 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3303,43 +3405,43 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3347,46 +3449,46 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3394,176 +3496,214 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK23" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
         <v>2</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
         <v>7</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="3">
         <v>2</v>
       </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
         <v>2</v>
       </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="3">
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="3">
         <v>2</v>
       </c>
-      <c r="AH24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="3">
+      <c r="AH25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="3">
         <v>4</v>
       </c>
-      <c r="AM24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR24" s="3">
+      <c r="AM25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3">
         <v>4</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AS25" s="3">
         <v>4</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AT25" s="3">
         <v>4</v>
       </c>
-      <c r="AU24" s="3">
+      <c r="AU25" s="3">
         <v>2</v>
       </c>
-      <c r="AV24" s="3">
+      <c r="AV25" s="3">
         <v>2</v>
       </c>
-      <c r="AW24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX24" s="3">
+      <c r="AW25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="3">
         <v>2</v>
       </c>
-      <c r="AY24" s="3">
+      <c r="AY25" s="3">
         <v>2</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="AZ25" s="3">
         <v>2</v>
       </c>
-      <c r="BA24" s="3">
+      <c r="BA25" s="3">
         <v>2</v>
       </c>
-      <c r="BB24" s="3">
+      <c r="BB25" s="3">
         <v>2</v>
       </c>
-      <c r="BC24" s="3">
+      <c r="BC25" s="3">
         <v>2</v>
       </c>
-      <c r="BD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE24" s="3">
+      <c r="BD25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="3">
         <v>2</v>
       </c>
-      <c r="BF24" s="3">
+      <c r="BF25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3574,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3597,47 +3737,51 @@
     <col min="11" max="11" width="28.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>193</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3645,22 +3789,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3668,10 +3812,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3679,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3687,13 +3831,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3701,10 +3845,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3712,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3720,16 +3864,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3737,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3745,13 +3889,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3759,10 +3903,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3770,10 +3914,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3781,19 +3925,19 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3801,22 +3945,22 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3824,10 +3968,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3835,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3843,7 +3987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3851,13 +3995,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3865,13 +4009,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3879,10 +4023,10 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3890,13 +4034,13 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3904,41 +4048,58 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="3">
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="3">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D25" s="3">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3">
         <v>6</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
         <v>2</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3949,7 +4110,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3977,31 +4138,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4012,7 +4173,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4023,7 +4184,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4034,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4061,7 +4222,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4080,10 +4241,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4094,10 +4255,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4116,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4191,7 +4352,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4202,35 +4363,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="208">
   <si>
     <t>Paper Title</t>
   </si>
@@ -105,6 +105,9 @@
     <t>Mining Twitter Data to Improve Detection of Schizophrenia</t>
   </si>
   <si>
+    <t>Rethinking schizophrenia</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>McManus K. Mallory E. Goldfeder R. et al.</t>
   </si>
   <si>
+    <t>Insel T.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Unknown</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>Gibberish</t>
   </si>
   <si>
@@ -631,6 +640,9 @@
   </si>
   <si>
     <t>System as an Aid to Clinicians</t>
+  </si>
+  <si>
+    <t>Rethinking Schizophrenia</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1042,10 +1054,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1065,10 +1077,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1088,10 +1100,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1111,10 +1123,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1134,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1157,10 +1169,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1180,10 +1192,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1203,10 +1215,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1226,10 +1238,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1249,10 +1261,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1272,10 +1284,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1295,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1318,10 +1330,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1341,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1364,10 +1376,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1387,10 +1399,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1410,10 +1422,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1433,10 +1445,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1456,10 +1468,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1479,10 +1491,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1502,10 +1514,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1525,10 +1537,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1537,6 +1549,29 @@
         <v>44499</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44501</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>
@@ -1547,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1584,58 +1619,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1946,121 +1981,129 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>2</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3">
-        <v>2</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>0.625</v>
+        <v>2.5</v>
       </c>
       <c r="F26" s="3">
-        <v>0.8333333333333334</v>
+        <v>2.5</v>
       </c>
       <c r="G26" s="3">
         <v>0.5</v>
       </c>
       <c r="H26" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J26" s="3">
         <v>0.5</v>
       </c>
       <c r="K26" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L26" s="3">
         <v>0.5</v>
       </c>
       <c r="M26" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M27" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O27" s="3">
         <v>0.75</v>
       </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2071,7 +2114,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2125,109 +2168,109 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2568,128 +2611,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P25" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T25" s="3">
-        <v>2</v>
-      </c>
-      <c r="U25" s="3">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1</v>
-      </c>
-      <c r="W25" s="3">
-        <v>2</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>0.5</v>
+    <row r="24" spans="1:37">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
         <v>0.5</v>
@@ -2707,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -2719,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
@@ -2731,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="S26" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U26" s="3">
         <v>1</v>
@@ -2743,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26" s="3">
         <v>1</v>
@@ -2767,16 +2708,16 @@
         <v>1</v>
       </c>
       <c r="AE26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF26" s="3">
         <v>0.5</v>
       </c>
       <c r="AG26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH26" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI26" s="3">
         <v>0.5</v>
@@ -2785,6 +2726,116 @@
         <v>1</v>
       </c>
       <c r="AK26" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -2795,7 +2846,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2875,187 +2926,187 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:63">
@@ -3066,28 +3117,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:63">
@@ -3114,13 +3165,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -3131,19 +3182,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:63">
@@ -3162,22 +3213,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -3196,31 +3247,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -3231,16 +3282,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3251,16 +3302,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3271,13 +3322,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3288,16 +3339,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3308,22 +3359,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3350,25 +3401,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -3379,22 +3430,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -3405,40 +3456,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -3449,43 +3500,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -3504,206 +3555,214 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:63">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>2</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
         <v>2</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
         <v>7</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="3">
         <v>2</v>
       </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
         <v>2</v>
       </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3">
-        <v>1</v>
-      </c>
-      <c r="V25" s="3">
-        <v>1</v>
-      </c>
-      <c r="W25" s="3">
-        <v>1</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="3">
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="3">
         <v>2</v>
       </c>
-      <c r="AH25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="3">
+      <c r="AH26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="3">
         <v>4</v>
       </c>
-      <c r="AM25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="3">
+      <c r="AM26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="3">
         <v>4</v>
       </c>
-      <c r="AS25" s="3">
+      <c r="AS26" s="3">
         <v>4</v>
       </c>
-      <c r="AT25" s="3">
+      <c r="AT26" s="3">
         <v>4</v>
       </c>
-      <c r="AU25" s="3">
+      <c r="AU26" s="3">
         <v>2</v>
       </c>
-      <c r="AV25" s="3">
+      <c r="AV26" s="3">
         <v>2</v>
       </c>
-      <c r="AW25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="3">
+      <c r="AW26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="3">
         <v>2</v>
       </c>
-      <c r="AY25" s="3">
+      <c r="AY26" s="3">
         <v>2</v>
       </c>
-      <c r="AZ25" s="3">
+      <c r="AZ26" s="3">
         <v>2</v>
       </c>
-      <c r="BA25" s="3">
+      <c r="BA26" s="3">
         <v>2</v>
       </c>
-      <c r="BB25" s="3">
+      <c r="BB26" s="3">
         <v>2</v>
       </c>
-      <c r="BC25" s="3">
+      <c r="BC26" s="3">
         <v>2</v>
       </c>
-      <c r="BD25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="3">
+      <c r="BD26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="3">
         <v>2</v>
       </c>
-      <c r="BF25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="3">
+      <c r="BF26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3714,7 +3773,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3745,40 +3804,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3789,19 +3848,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3812,7 +3871,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3831,10 +3890,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3845,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3864,13 +3923,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3889,10 +3948,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3903,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3914,7 +3973,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3925,16 +3984,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3945,19 +4004,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3968,7 +4027,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3995,10 +4054,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4009,10 +4068,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4023,7 +4082,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4034,10 +4093,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4056,50 +4115,58 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>12</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>6</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
         <v>2</v>
       </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4110,7 +4177,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4131,41 +4198,45 @@
     <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>206</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4173,10 +4244,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4184,10 +4255,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4195,10 +4266,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4206,7 +4277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4214,7 +4285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4222,10 +4293,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4233,7 +4304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4241,13 +4312,13 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4255,13 +4326,13 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4269,7 +4340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4277,10 +4348,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4288,7 +4359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4296,7 +4367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4304,7 +4375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4312,7 +4383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4320,7 +4391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4328,7 +4399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4336,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4344,7 +4415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4352,10 +4423,10 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4363,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4371,35 +4442,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
   <si>
     <t>Paper Title</t>
   </si>
@@ -108,6 +108,9 @@
     <t>Rethinking schizophrenia</t>
   </si>
   <si>
+    <t>Predictive Linguistic Features of Schizophrenia</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>Insel T.</t>
   </si>
   <si>
+    <t>Kayi E. Diab M. Pauselli L. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -390,6 +396,27 @@
     <t>Microblogging extracted Features</t>
   </si>
   <si>
+    <t>Dependency Parse</t>
+  </si>
+  <si>
+    <t>Semantic Role Labeling</t>
+  </si>
+  <si>
+    <t>Latent Dirichlet Allocation</t>
+  </si>
+  <si>
+    <t>Word Embeddings Clustering</t>
+  </si>
+  <si>
+    <t>Level of Committed Belief</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Sentiment Intensity Analysis</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -615,6 +642,9 @@
     <t>Unreliable Features</t>
   </si>
   <si>
+    <t>Missing Explanation</t>
+  </si>
+  <si>
     <t>Classifying Schizophrenic</t>
   </si>
   <si>
@@ -643,6 +673,12 @@
   </si>
   <si>
     <t>Rethinking Schizophrenia</t>
+  </si>
+  <si>
+    <t>Schizophrenia Evolution</t>
+  </si>
+  <si>
+    <t>Current Schizophrenia Development</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1054,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1077,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1100,10 +1136,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1123,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1146,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1169,10 +1205,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1192,10 +1228,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1215,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1238,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1261,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1284,10 +1320,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1307,10 +1343,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1330,10 +1366,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1353,10 +1389,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1376,10 +1412,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1399,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1422,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1445,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1468,10 +1504,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1491,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1514,10 +1550,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1537,10 +1573,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1560,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1572,6 +1608,29 @@
         <v>44501</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44503</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44504</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1619,58 +1678,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1989,121 +2048,138 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1</v>
-      </c>
-      <c r="T26" s="3">
-        <v>2</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D27" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>0.625</v>
+        <v>3.5</v>
       </c>
       <c r="F27" s="3">
-        <v>0.8333333333333334</v>
+        <v>3.5</v>
       </c>
       <c r="G27" s="3">
         <v>0.5</v>
       </c>
       <c r="H27" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J27" s="3">
         <v>0.5</v>
       </c>
       <c r="K27" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L27" s="3">
         <v>0.5</v>
       </c>
       <c r="M27" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O28" s="3">
         <v>0.75</v>
       </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2114,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AR28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2161,119 +2237,147 @@
     <col min="35" max="35" width="22.7109375" style="3" customWidth="1"/>
     <col min="36" max="36" width="21.7109375" style="3" customWidth="1"/>
     <col min="37" max="37" width="32.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="16.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="22.7109375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.7109375" style="3" customWidth="1"/>
+    <col min="41" max="41" width="26.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="25.7109375" style="3" customWidth="1"/>
+    <col min="43" max="43" width="18.7109375" style="3" customWidth="1"/>
+    <col min="44" max="44" width="28.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:44">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+        <v>124</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2293,7 +2397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:44">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2301,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:44">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2309,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:44">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2329,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:44">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2343,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:44">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2351,7 +2455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:44">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2371,7 +2475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:44">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2382,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:44">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2399,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:44">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2425,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:44">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2448,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:44">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2468,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:44">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2479,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:44">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2493,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:44">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2504,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:44">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2512,7 +2616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:44">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2535,7 +2639,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:44">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2561,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:44">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2578,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:44">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2592,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:44">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2600,7 +2704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:44">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2611,7 +2715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:44">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2619,128 +2723,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="25" spans="1:44">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3">
         <v>3.5</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P26" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T26" s="3">
-        <v>2</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1</v>
-      </c>
-      <c r="W26" s="3">
-        <v>2</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
       </c>
       <c r="F27" s="3">
         <v>0.5</v>
@@ -2758,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="3">
         <v>1</v>
@@ -2770,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="3">
         <v>1</v>
@@ -2782,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="S27" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" s="3">
         <v>1</v>
@@ -2794,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X27" s="3">
         <v>1</v>
@@ -2818,16 +2844,16 @@
         <v>1</v>
       </c>
       <c r="AE27" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF27" s="3">
         <v>0.5</v>
       </c>
       <c r="AG27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI27" s="3">
         <v>0.5</v>
@@ -2837,6 +2863,158 @@
       </c>
       <c r="AK27" s="3">
         <v>0.5</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +3024,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2926,187 +3104,187 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:63">
@@ -3117,28 +3295,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:63">
@@ -3165,13 +3343,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -3182,19 +3360,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:63">
@@ -3213,22 +3391,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -3247,31 +3425,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -3282,16 +3460,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3302,16 +3480,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3322,13 +3500,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3339,16 +3517,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3359,22 +3537,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3401,25 +3579,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -3430,22 +3608,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -3456,40 +3634,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -3500,43 +3678,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -3555,19 +3733,19 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -3578,191 +3756,202 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:63">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
         <v>2</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
         <v>7</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <v>2</v>
       </c>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="3">
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>1</v>
+      </c>
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU27" s="3">
         <v>2</v>
       </c>
-      <c r="AH26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AT26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AU26" s="3">
+      <c r="AV27" s="3">
         <v>2</v>
       </c>
-      <c r="AV26" s="3">
+      <c r="AW27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="3">
         <v>2</v>
       </c>
-      <c r="AW26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="3">
+      <c r="AY27" s="3">
         <v>2</v>
       </c>
-      <c r="AY26" s="3">
+      <c r="AZ27" s="3">
         <v>2</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="BA27" s="3">
         <v>2</v>
       </c>
-      <c r="BA26" s="3">
+      <c r="BB27" s="3">
         <v>2</v>
       </c>
-      <c r="BB26" s="3">
+      <c r="BC27" s="3">
         <v>2</v>
       </c>
-      <c r="BC26" s="3">
+      <c r="BD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="3">
         <v>2</v>
       </c>
-      <c r="BD26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE26" s="3">
-        <v>2</v>
-      </c>
-      <c r="BF26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="3">
+      <c r="BF27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3773,7 +3962,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3797,50 +3986,54 @@
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>206</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3848,22 +4041,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3871,10 +4064,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3882,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3890,13 +4083,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3904,10 +4097,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3915,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3923,16 +4116,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3940,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3948,13 +4141,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3962,10 +4155,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3973,10 +4166,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3984,19 +4177,19 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4004,22 +4197,22 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4027,10 +4220,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4038,7 +4231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4046,7 +4239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4054,13 +4247,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4068,13 +4261,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4082,10 +4275,10 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4093,13 +4286,13 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4107,7 +4300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4115,13 +4308,13 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4129,44 +4322,61 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="3">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>12</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>3</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
         <v>2</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4177,7 +4387,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4199,44 +4409,52 @@
     <col min="10" max="10" width="24.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>217</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4244,10 +4462,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4255,10 +4473,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4266,10 +4484,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4277,7 +4495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4285,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4293,10 +4511,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4304,7 +4522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4312,13 +4530,13 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4326,13 +4544,13 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4340,7 +4558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4348,10 +4566,10 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4359,7 +4577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4367,7 +4585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4375,7 +4593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4383,7 +4601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4391,7 +4609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4399,7 +4617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4407,7 +4625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4415,7 +4633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4423,10 +4641,10 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4434,7 +4652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4442,7 +4660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4450,41 +4668,61 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="222">
   <si>
     <t>Paper Title</t>
   </si>
@@ -111,6 +111,9 @@
     <t>Predictive Linguistic Features of Schizophrenia</t>
   </si>
   <si>
+    <t>An automated method to analyze language use in patients with schizophrenia and their first-degree relatives</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>Kayi E. Diab M. Pauselli L. et al.</t>
+  </si>
+  <si>
+    <t>Elvevåg B. Foltz P. Rosenstein M. et al.</t>
   </si>
   <si>
     <t>1980</t>
@@ -1043,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1090,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1113,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1136,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1159,10 +1165,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1182,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1205,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1228,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1251,10 +1257,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1274,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1297,10 +1303,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1320,10 +1326,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1343,10 +1349,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1366,10 +1372,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1389,10 +1395,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1412,10 +1418,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1435,10 +1441,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1458,10 +1464,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1481,10 +1487,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1504,10 +1510,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1527,10 +1533,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1550,10 +1556,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1573,10 +1579,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1596,10 +1602,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1619,10 +1625,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2">
         <v>44503</v>
@@ -1632,6 +1638,29 @@
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44505</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44505</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1678,58 +1707,58 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2065,121 +2094,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M27" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>2</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
-        <v>3</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D28" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="F28" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="G28" s="3">
         <v>0.5</v>
       </c>
       <c r="H28" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="J28" s="3">
         <v>0.5</v>
       </c>
       <c r="K28" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L28" s="3">
         <v>0.5</v>
       </c>
       <c r="M28" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>2</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M29" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O29" s="3">
         <v>0.75</v>
       </c>
-      <c r="P28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1</v>
-      </c>
-      <c r="T28" s="3">
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2190,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2251,130 +2288,130 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -2755,149 +2792,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T27" s="3">
-        <v>2</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1</v>
-      </c>
-      <c r="W27" s="3">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR27" s="3">
+    <row r="26" spans="1:44">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>0.5</v>
@@ -2915,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="3">
         <v>1</v>
@@ -2927,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="3">
         <v>1</v>
@@ -2939,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="S28" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" s="3">
         <v>1</v>
@@ -2951,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28" s="3">
         <v>1</v>
@@ -2975,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="AE28" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF28" s="3">
         <v>0.5</v>
       </c>
       <c r="AG28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI28" s="3">
         <v>0.5</v>
@@ -3014,6 +2931,137 @@
         <v>1</v>
       </c>
       <c r="AR28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3024,7 +3072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3104,187 +3152,187 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:63">
@@ -3295,28 +3343,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:63">
@@ -3343,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -3360,19 +3408,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:63">
@@ -3391,22 +3439,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -3425,31 +3473,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -3460,16 +3508,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:63">
@@ -3480,16 +3528,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3500,13 +3548,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:63">
@@ -3517,16 +3565,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:63">
@@ -3537,22 +3585,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:63">
@@ -3579,25 +3627,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -3608,22 +3656,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -3634,40 +3682,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:63">
@@ -3678,43 +3726,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:63">
@@ -3733,19 +3781,19 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:63">
@@ -3764,194 +3812,202 @@
         <v>29</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:63">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
         <v>2</v>
       </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
         <v>7</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>2</v>
       </c>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
         <v>2</v>
       </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="3">
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>1</v>
+      </c>
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="3">
         <v>3</v>
       </c>
-      <c r="AH27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="3">
+      <c r="AH28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="3">
         <v>4</v>
       </c>
-      <c r="AM27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR27" s="3">
+      <c r="AM28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="3">
         <v>4</v>
       </c>
-      <c r="AS27" s="3">
+      <c r="AS28" s="3">
         <v>4</v>
       </c>
-      <c r="AT27" s="3">
+      <c r="AT28" s="3">
         <v>4</v>
       </c>
-      <c r="AU27" s="3">
+      <c r="AU28" s="3">
         <v>2</v>
       </c>
-      <c r="AV27" s="3">
+      <c r="AV28" s="3">
         <v>2</v>
       </c>
-      <c r="AW27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="3">
+      <c r="AW28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="3">
         <v>2</v>
       </c>
-      <c r="AY27" s="3">
+      <c r="AY28" s="3">
         <v>2</v>
       </c>
-      <c r="AZ27" s="3">
+      <c r="AZ28" s="3">
         <v>2</v>
       </c>
-      <c r="BA27" s="3">
+      <c r="BA28" s="3">
         <v>2</v>
       </c>
-      <c r="BB27" s="3">
+      <c r="BB28" s="3">
         <v>2</v>
       </c>
-      <c r="BC27" s="3">
+      <c r="BC28" s="3">
         <v>2</v>
       </c>
-      <c r="BD27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="3">
+      <c r="BD28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="3">
         <v>2</v>
       </c>
-      <c r="BF27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="3">
+      <c r="BF28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3962,7 +4018,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3994,43 +4050,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4041,19 +4097,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4064,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4083,10 +4139,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4097,7 +4153,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4116,13 +4172,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4141,10 +4197,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4155,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4166,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4177,16 +4233,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4197,19 +4253,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4220,7 +4276,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4247,10 +4303,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4261,10 +4317,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4275,7 +4331,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4286,10 +4342,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4308,10 +4364,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4330,54 +4386,71 @@
         <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>12</v>
       </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E28" s="3">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I28" s="3">
         <v>2</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
-      <c r="O27" s="3">
-        <v>1</v>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4387,7 +4460,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4418,40 +4491,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4462,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4473,7 +4546,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4484,7 +4557,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4511,7 +4584,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4530,10 +4603,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4544,10 +4617,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4566,7 +4639,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4641,7 +4714,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4668,7 +4741,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4679,50 +4752,58 @@
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="227">
   <si>
     <t>Paper Title</t>
   </si>
@@ -114,6 +114,9 @@
     <t>An automated method to analyze language use in patients with schizophrenia and their first-degree relatives</t>
   </si>
   <si>
+    <t>Automatic Detection of Incoherent Speech for Diagnosing Schizophrenia</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Elvevåg B. Foltz P. Rosenstein M. et al.</t>
   </si>
   <si>
+    <t>Iter D. Yoon J. Jurafsky D.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -291,6 +297,9 @@
     <t>Speech Apathy</t>
   </si>
   <si>
+    <t>Loss of Referential Standarts</t>
+  </si>
+  <si>
     <t>Sum Value</t>
   </si>
   <si>
@@ -423,6 +432,9 @@
     <t>Sentiment Intensity Analysis</t>
   </si>
   <si>
+    <t>Referential Coherence Model</t>
+  </si>
+  <si>
     <t>Speech Duration</t>
   </si>
   <si>
@@ -604,6 +616,9 @@
   </si>
   <si>
     <t>Microblogging: Emoticons Used</t>
+  </si>
+  <si>
+    <t>Number of Ambiguous References</t>
   </si>
   <si>
     <t>X</t>
@@ -1049,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1096,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1119,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1142,10 +1157,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1165,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1188,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1211,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1234,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1257,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1280,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1303,10 +1318,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1326,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1349,10 +1364,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1372,10 +1387,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1395,10 +1410,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1418,10 +1433,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1441,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1464,10 +1479,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1487,10 +1502,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1510,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1533,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1556,10 +1571,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1579,10 +1594,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1602,10 +1617,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1625,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <v>44503</v>
@@ -1648,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
         <v>44505</v>
@@ -1660,6 +1675,29 @@
         <v>44505</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44509</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44509</v>
+      </c>
+      <c r="G27">
         <v>0</v>
       </c>
     </row>
@@ -1670,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1700,68 +1738,72 @@
     <col min="18" max="18" width="23.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="30.7109375" style="3" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="29.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1790,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1813,7 +1855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1821,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1841,7 +1883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1852,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1860,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1882,7 +1924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1899,7 +1941,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1913,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1927,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1944,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1958,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1972,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1980,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1988,7 +2030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2005,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2022,7 +2064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2053,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2061,7 +2103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2069,7 +2111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2077,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2094,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2102,121 +2144,147 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="3">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3">
         <v>1.5</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>3.5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>3.5</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M28" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>2</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1</v>
-      </c>
-      <c r="T28" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.875</v>
       </c>
       <c r="G29" s="3">
         <v>0.5</v>
       </c>
       <c r="H29" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="J29" s="3">
         <v>0.5</v>
       </c>
       <c r="K29" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L29" s="3">
         <v>0.5</v>
       </c>
       <c r="M29" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N29" s="3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N30" s="3">
         <v>0.75</v>
       </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="O30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2227,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2281,140 +2349,144 @@
     <col min="42" max="42" width="25.7109375" style="3" customWidth="1"/>
     <col min="43" max="43" width="18.7109375" style="3" customWidth="1"/>
     <col min="44" max="44" width="28.7109375" style="3" customWidth="1"/>
+    <col min="45" max="45" width="27.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44">
+        <v>136</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2434,7 +2506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2442,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2450,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2470,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2484,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2492,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2512,7 +2584,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2523,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2540,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2566,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2589,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2609,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2620,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2634,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2645,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2653,7 +2725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2676,7 +2748,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2702,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2719,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2733,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2741,7 +2813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2752,7 +2824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2760,7 +2832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2792,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2803,149 +2875,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="3">
+    <row r="27" spans="1:45">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3">
         <v>3.5</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>2</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P28" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T28" s="3">
-        <v>2</v>
-      </c>
-      <c r="U28" s="3">
-        <v>1</v>
-      </c>
-      <c r="V28" s="3">
-        <v>1</v>
-      </c>
-      <c r="W28" s="3">
-        <v>3</v>
-      </c>
-      <c r="X28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
       </c>
       <c r="F29" s="3">
         <v>0.5</v>
@@ -2963,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
@@ -2975,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P29" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>1</v>
@@ -2987,10 +2945,10 @@
         <v>1</v>
       </c>
       <c r="S29" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29" s="3">
         <v>1</v>
@@ -2999,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X29" s="3">
         <v>1</v>
@@ -3023,16 +2981,16 @@
         <v>1</v>
       </c>
       <c r="AE29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF29" s="3">
         <v>0.5</v>
       </c>
       <c r="AG29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH29" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI29" s="3">
         <v>0.5</v>
@@ -3062,6 +3020,143 @@
         <v>1</v>
       </c>
       <c r="AR29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3072,7 +3167,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3145,197 +3240,201 @@
     <col min="61" max="61" width="33.7109375" style="3" customWidth="1"/>
     <col min="62" max="62" width="42.7109375" style="3" customWidth="1"/>
     <col min="63" max="63" width="29.7109375" style="3" customWidth="1"/>
+    <col min="64" max="64" width="30.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:64">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63">
+        <v>198</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3343,31 +3442,31 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3375,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:64">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3383,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:64">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3391,16 +3490,16 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3408,22 +3507,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3431,7 +3530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:64">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3439,25 +3538,25 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3465,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:64">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3473,34 +3572,34 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3508,19 +3607,19 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3528,19 +3627,19 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3548,16 +3647,16 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3565,19 +3664,19 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3585,25 +3684,25 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3611,7 +3710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:64">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3619,7 +3718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:64">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3627,28 +3726,28 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3656,25 +3755,25 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3682,43 +3781,43 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3726,46 +3825,46 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3773,7 +3872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:64">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3781,22 +3880,22 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3804,7 +3903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:64">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3812,10 +3911,10 @@
         <v>29</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3823,191 +3922,208 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:63">
-      <c r="A28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
+    <row r="27" spans="1:64">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL27" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
         <v>2</v>
       </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
         <v>7</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <v>2</v>
       </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3">
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
         <v>2</v>
       </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1</v>
-      </c>
-      <c r="T28" s="3">
-        <v>1</v>
-      </c>
-      <c r="U28" s="3">
-        <v>1</v>
-      </c>
-      <c r="V28" s="3">
-        <v>1</v>
-      </c>
-      <c r="W28" s="3">
-        <v>1</v>
-      </c>
-      <c r="X28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="3">
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="3">
         <v>3</v>
       </c>
-      <c r="AH28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="3">
+      <c r="AH29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="3">
         <v>4</v>
       </c>
-      <c r="AM28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR28" s="3">
+      <c r="AM29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3">
         <v>4</v>
       </c>
-      <c r="AS28" s="3">
+      <c r="AS29" s="3">
         <v>4</v>
       </c>
-      <c r="AT28" s="3">
+      <c r="AT29" s="3">
         <v>4</v>
       </c>
-      <c r="AU28" s="3">
+      <c r="AU29" s="3">
         <v>2</v>
       </c>
-      <c r="AV28" s="3">
+      <c r="AV29" s="3">
         <v>2</v>
       </c>
-      <c r="AW28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX28" s="3">
+      <c r="AW29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="3">
         <v>2</v>
       </c>
-      <c r="AY28" s="3">
+      <c r="AY29" s="3">
         <v>2</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="AZ29" s="3">
         <v>2</v>
       </c>
-      <c r="BA28" s="3">
+      <c r="BA29" s="3">
         <v>2</v>
       </c>
-      <c r="BB28" s="3">
+      <c r="BB29" s="3">
         <v>2</v>
       </c>
-      <c r="BC28" s="3">
+      <c r="BC29" s="3">
         <v>2</v>
       </c>
-      <c r="BD28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="3">
+      <c r="BD29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="3">
         <v>2</v>
       </c>
-      <c r="BF28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="3">
+      <c r="BF29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4018,7 +4134,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4050,43 +4166,43 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4097,19 +4213,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4120,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4139,10 +4255,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4153,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4172,13 +4288,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4197,10 +4313,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4211,7 +4327,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4222,7 +4338,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4233,16 +4349,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4253,19 +4369,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4276,7 +4392,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4303,10 +4419,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4317,10 +4433,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4331,7 +4447,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4342,10 +4458,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4364,10 +4480,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4386,10 +4502,10 @@
         <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4400,56 +4516,73 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="J29" s="3">
         <v>2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>2</v>
       </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="O29" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4460,7 +4593,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4491,40 +4624,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4535,7 +4668,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4546,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4557,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4584,7 +4717,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4603,10 +4736,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4617,10 +4750,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4639,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4714,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4741,7 +4874,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4752,10 +4885,10 @@
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4766,44 +4899,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
+    <row r="27" spans="1:14">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="230">
   <si>
     <t>Paper Title</t>
   </si>
@@ -117,6 +117,9 @@
     <t>Automatic Detection of Incoherent Speech for Diagnosing Schizophrenia</t>
   </si>
   <si>
+    <t>Coherence models in schizophrenia</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
     <t>Iter D. Yoon J. Jurafsky D.</t>
   </si>
   <si>
+    <t>Just S. Haegert E. KpYánová N. et al.</t>
+  </si>
+  <si>
     <t>1980</t>
   </si>
   <si>
@@ -664,6 +670,9 @@
   </si>
   <si>
     <t>Missing Explanation</t>
+  </si>
+  <si>
+    <t>Bias in Classification</t>
   </si>
   <si>
     <t>Classifying Schizophrenic</t>
@@ -1064,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1111,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1134,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1157,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1180,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1203,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1226,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1249,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1272,10 +1281,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1295,10 +1304,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1318,10 +1327,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1341,10 +1350,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1364,10 +1373,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1387,10 +1396,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1410,10 +1419,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1433,10 +1442,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1456,10 +1465,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1479,10 +1488,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1502,10 +1511,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1525,10 +1534,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1548,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1571,10 +1580,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1594,10 +1603,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1617,10 +1626,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1640,10 +1649,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2">
         <v>44503</v>
@@ -1663,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <v>44505</v>
@@ -1686,10 +1695,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" s="2">
         <v>44509</v>
@@ -1698,6 +1707,29 @@
         <v>44509</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44510</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44510</v>
+      </c>
+      <c r="G28">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1746,61 +1778,61 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2164,127 +2196,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>3</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>3</v>
-      </c>
-      <c r="U29" s="3">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D30" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="F30" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="G30" s="3">
         <v>0.5</v>
       </c>
       <c r="H30" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>0.8400000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="J30" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K30" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L30" s="3">
         <v>0.5</v>
       </c>
       <c r="M30" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N30" s="3">
+        <v>4</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>4</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>3</v>
+      </c>
+      <c r="U30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="O31" s="3">
         <v>0.75</v>
       </c>
-      <c r="O30" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1</v>
-      </c>
-      <c r="U30" s="3">
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2295,7 +2350,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2357,133 +2412,133 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -2892,152 +2947,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>2</v>
-      </c>
-      <c r="U29" s="3">
-        <v>1</v>
-      </c>
-      <c r="V29" s="3">
-        <v>1</v>
-      </c>
-      <c r="W29" s="3">
-        <v>3</v>
-      </c>
-      <c r="X29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="3">
+    <row r="28" spans="1:45">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3">
         <v>0.5</v>
@@ -3055,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="3">
         <v>1</v>
@@ -3067,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P30" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q30" s="3">
         <v>1</v>
@@ -3079,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="S30" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" s="3">
         <v>1</v>
@@ -3091,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X30" s="3">
         <v>1</v>
@@ -3115,16 +3053,16 @@
         <v>1</v>
       </c>
       <c r="AE30" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF30" s="3">
         <v>0.5</v>
       </c>
       <c r="AG30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI30" s="3">
         <v>0.5</v>
@@ -3157,6 +3095,140 @@
         <v>1</v>
       </c>
       <c r="AS30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3167,7 +3239,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL29"/>
+  <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3248,190 +3320,190 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -3442,28 +3514,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -3490,13 +3562,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -3507,19 +3579,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -3538,22 +3610,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -3572,31 +3644,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:64">
@@ -3607,16 +3679,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:64">
@@ -3627,16 +3699,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:64">
@@ -3647,13 +3719,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -3664,16 +3736,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -3684,22 +3756,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -3726,25 +3798,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:64">
@@ -3755,22 +3827,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:64">
@@ -3781,40 +3853,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:64">
@@ -3825,43 +3897,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:64">
@@ -3880,19 +3952,19 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:64">
@@ -3911,7 +3983,7 @@
         <v>29</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:64">
@@ -3930,201 +4002,215 @@
         <v>31</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BL27" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:64">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL28" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
         <v>7</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <v>2</v>
       </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
         <v>2</v>
       </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>1</v>
-      </c>
-      <c r="U29" s="3">
-        <v>1</v>
-      </c>
-      <c r="V29" s="3">
-        <v>1</v>
-      </c>
-      <c r="W29" s="3">
-        <v>1</v>
-      </c>
-      <c r="X29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="3">
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AU30" s="3">
         <v>2</v>
       </c>
-      <c r="AD29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AT29" s="3">
-        <v>4</v>
-      </c>
-      <c r="AU29" s="3">
+      <c r="AV30" s="3">
         <v>2</v>
       </c>
-      <c r="AV29" s="3">
+      <c r="AW30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="3">
         <v>2</v>
       </c>
-      <c r="AW29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="3">
+      <c r="AY30" s="3">
         <v>2</v>
       </c>
-      <c r="AY29" s="3">
+      <c r="AZ30" s="3">
         <v>2</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="BA30" s="3">
         <v>2</v>
       </c>
-      <c r="BA29" s="3">
+      <c r="BB30" s="3">
         <v>2</v>
       </c>
-      <c r="BB29" s="3">
+      <c r="BC30" s="3">
         <v>2</v>
       </c>
-      <c r="BC29" s="3">
+      <c r="BD30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE30" s="3">
         <v>2</v>
       </c>
-      <c r="BD29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE29" s="3">
+      <c r="BF30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL30" s="3">
         <v>2</v>
-      </c>
-      <c r="BF29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4220,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4159,53 +4245,57 @@
     <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>216</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4213,22 +4303,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4236,10 +4326,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4247,7 +4337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4255,13 +4345,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4269,10 +4359,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4280,7 +4370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4288,16 +4378,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4305,7 +4395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4313,13 +4403,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4327,10 +4417,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4338,10 +4428,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4349,19 +4439,19 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4369,22 +4459,22 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4392,10 +4482,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4403,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4411,7 +4501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4419,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4433,13 +4523,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4447,10 +4537,10 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4458,13 +4548,13 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4472,7 +4562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4480,13 +4570,13 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4494,7 +4584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4502,13 +4592,13 @@
         <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4516,16 +4606,16 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4533,57 +4623,77 @@
         <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D29" s="3">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D30" s="3">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I30" s="3">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J30" s="3">
         <v>2</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
         <v>2</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O30" s="3">
         <v>2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4703,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4624,40 +4734,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4668,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4679,7 +4789,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4690,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4717,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4736,10 +4846,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4750,10 +4860,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4772,7 +4882,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4847,7 +4957,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4874,7 +4984,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4885,10 +4995,10 @@
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4907,44 +5017,52 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="232">
   <si>
     <t>Paper Title</t>
   </si>
@@ -120,6 +120,9 @@
     <t>Coherence models in schizophrenia</t>
   </si>
   <si>
+    <t>Automated coherence measures fail to index thought disorder in individuals at risk for psychosis</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
   </si>
   <si>
     <t>Just S. Haegert E. KpYánová N. et al.</t>
+  </si>
+  <si>
+    <t>Hitczenko K. Cowan H. Mittal V. et al.</t>
   </si>
   <si>
     <t>1980</t>
@@ -1073,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1120,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1143,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1166,10 +1172,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1189,10 +1195,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1212,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1235,10 +1241,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1258,10 +1264,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1281,10 +1287,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1304,10 +1310,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1327,10 +1333,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1350,10 +1356,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1373,10 +1379,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1396,10 +1402,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1419,10 +1425,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1442,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1465,10 +1471,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1488,10 +1494,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1511,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1534,10 +1540,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1557,10 +1563,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1580,10 +1586,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1603,10 +1609,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1626,10 +1632,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1649,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2">
         <v>44503</v>
@@ -1672,10 +1678,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2">
         <v>44505</v>
@@ -1695,10 +1701,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2">
         <v>44509</v>
@@ -1718,10 +1724,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
         <v>44510</v>
@@ -1731,6 +1737,29 @@
       </c>
       <c r="G28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44511</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44514</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1778,61 +1807,61 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2219,127 +2248,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M30" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N30" s="3">
-        <v>4</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>4</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>3</v>
-      </c>
-      <c r="U30" s="3">
-        <v>2</v>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D31" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="F31" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="G31" s="3">
         <v>0.5</v>
       </c>
       <c r="H31" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>0.8666666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="J31" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="K31" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L31" s="3">
         <v>0.5</v>
       </c>
       <c r="M31" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N31" s="3">
+        <v>4</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>4</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>0.8</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O32" s="3">
         <v>0.75</v>
       </c>
-      <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="3">
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2350,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2412,133 +2449,133 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -2964,152 +3001,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>4</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P30" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T30" s="3">
-        <v>2</v>
-      </c>
-      <c r="U30" s="3">
-        <v>1</v>
-      </c>
-      <c r="V30" s="3">
-        <v>1</v>
-      </c>
-      <c r="W30" s="3">
-        <v>3</v>
-      </c>
-      <c r="X30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="3">
-        <v>2</v>
+    <row r="29" spans="1:45">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
         <v>0.5</v>
@@ -3127,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" s="3">
         <v>1</v>
@@ -3139,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P31" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="3">
         <v>1</v>
@@ -3151,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="S31" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" s="3">
         <v>1</v>
@@ -3163,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X31" s="3">
         <v>1</v>
@@ -3187,16 +3098,16 @@
         <v>1</v>
       </c>
       <c r="AE31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF31" s="3">
         <v>0.5</v>
       </c>
       <c r="AG31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI31" s="3">
         <v>0.5</v>
@@ -3229,6 +3140,140 @@
         <v>1</v>
       </c>
       <c r="AS31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3239,7 +3284,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL30"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3320,190 +3365,190 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -3514,28 +3559,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -3562,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -3579,19 +3624,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -3610,22 +3655,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -3644,31 +3689,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:64">
@@ -3679,16 +3724,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:64">
@@ -3699,16 +3744,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:64">
@@ -3719,13 +3764,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -3736,16 +3781,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -3756,22 +3801,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -3798,25 +3843,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:64">
@@ -3827,22 +3872,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:64">
@@ -3853,40 +3898,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:64">
@@ -3897,43 +3942,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:64">
@@ -3952,19 +3997,19 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:64">
@@ -3983,7 +4028,7 @@
         <v>29</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:64">
@@ -4002,10 +4047,10 @@
         <v>31</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BL27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:64">
@@ -4016,200 +4061,208 @@
         <v>32</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BL28" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:64">
-      <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
         <v>7</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
         <v>2</v>
       </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3">
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3">
         <v>2</v>
       </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>1</v>
-      </c>
-      <c r="U30" s="3">
-        <v>1</v>
-      </c>
-      <c r="V30" s="3">
-        <v>1</v>
-      </c>
-      <c r="W30" s="3">
-        <v>1</v>
-      </c>
-      <c r="X30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="3">
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1</v>
+      </c>
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3">
         <v>3</v>
       </c>
-      <c r="AD30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="3">
+      <c r="AD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="3">
         <v>3</v>
       </c>
-      <c r="AH30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="3">
+      <c r="AH31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="3">
         <v>4</v>
       </c>
-      <c r="AM30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="3">
+      <c r="AM31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3">
         <v>4</v>
       </c>
-      <c r="AS30" s="3">
+      <c r="AS31" s="3">
         <v>4</v>
       </c>
-      <c r="AT30" s="3">
+      <c r="AT31" s="3">
         <v>4</v>
       </c>
-      <c r="AU30" s="3">
+      <c r="AU31" s="3">
         <v>2</v>
       </c>
-      <c r="AV30" s="3">
+      <c r="AV31" s="3">
         <v>2</v>
       </c>
-      <c r="AW30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="3">
+      <c r="AW31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="3">
         <v>2</v>
       </c>
-      <c r="AY30" s="3">
+      <c r="AY31" s="3">
         <v>2</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AZ31" s="3">
         <v>2</v>
       </c>
-      <c r="BA30" s="3">
+      <c r="BA31" s="3">
         <v>2</v>
       </c>
-      <c r="BB30" s="3">
+      <c r="BB31" s="3">
         <v>2</v>
       </c>
-      <c r="BC30" s="3">
+      <c r="BC31" s="3">
         <v>2</v>
       </c>
-      <c r="BD30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE30" s="3">
+      <c r="BD31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="3">
         <v>2</v>
       </c>
-      <c r="BF30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="3">
+      <c r="BF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4220,7 +4273,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4253,46 +4306,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4303,19 +4356,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4326,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4345,10 +4398,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4359,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4378,13 +4431,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4403,10 +4456,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4417,7 +4470,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4428,7 +4481,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4439,16 +4492,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4459,19 +4512,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4482,7 +4535,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4509,10 +4562,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4523,10 +4576,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4537,7 +4590,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4548,10 +4601,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4570,10 +4623,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4592,10 +4645,10 @@
         <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4606,13 +4659,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4623,13 +4676,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4640,59 +4693,67 @@
         <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>14</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>9</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>3</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>2</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="3">
         <v>2</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
         <v>2</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="3">
         <v>2</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4703,7 +4764,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4734,40 +4795,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4778,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4789,7 +4850,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4800,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4827,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4846,10 +4907,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4860,10 +4921,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4882,7 +4943,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4957,7 +5018,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4984,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4995,10 +5056,10 @@
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5025,44 +5086,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
         <v>1</v>
       </c>
     </row>

--- a/papers/stats/stats_spreadsheet.xlsx
+++ b/papers/stats/stats_spreadsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="234">
   <si>
     <t>Paper Title</t>
   </si>
@@ -123,6 +123,9 @@
     <t>Automated coherence measures fail to index thought disorder in individuals at risk for psychosis</t>
   </si>
   <si>
+    <t>Early intervention in psychosis in Portugal: Where are we?</t>
+  </si>
+  <si>
     <t>Clemmer, Edward J.</t>
   </si>
   <si>
@@ -205,6 +208,9 @@
   </si>
   <si>
     <t>Hitczenko K. Cowan H. Mittal V. et al.</t>
+  </si>
+  <si>
+    <t>Coentre R. Levy P.</t>
   </si>
   <si>
     <t>1980</t>
@@ -1079,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1126,10 +1132,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>44460</v>
@@ -1149,10 +1155,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>44466</v>
@@ -1172,10 +1178,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>44466</v>
@@ -1195,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
         <v>44468</v>
@@ -1218,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>44470</v>
@@ -1241,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>44471</v>
@@ -1264,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2">
         <v>44472</v>
@@ -1287,10 +1293,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2">
         <v>44473</v>
@@ -1310,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2">
         <v>44475</v>
@@ -1333,10 +1339,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2">
         <v>44477</v>
@@ -1356,10 +1362,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2">
         <v>44480</v>
@@ -1379,10 +1385,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2">
         <v>44483</v>
@@ -1402,10 +1408,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2">
         <v>44488</v>
@@ -1425,10 +1431,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2">
         <v>44488</v>
@@ -1448,10 +1454,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2">
         <v>44489</v>
@@ -1471,10 +1477,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2">
         <v>44492</v>
@@ -1494,10 +1500,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2">
         <v>44492</v>
@@ -1517,10 +1523,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2">
         <v>44493</v>
@@ -1540,10 +1546,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2">
         <v>44496</v>
@@ -1563,10 +1569,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2">
         <v>44496</v>
@@ -1586,10 +1592,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>44497</v>
@@ -1609,10 +1615,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2">
         <v>44498</v>
@@ -1632,10 +1638,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2">
         <v>44500</v>
@@ -1655,10 +1661,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2">
         <v>44503</v>
@@ -1678,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2">
         <v>44505</v>
@@ -1701,10 +1707,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2">
         <v>44509</v>
@@ -1724,10 +1730,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2">
         <v>44510</v>
@@ -1747,10 +1753,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2">
         <v>44511</v>
@@ -1760,6 +1766,29 @@
       </c>
       <c r="G29">
         <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44514</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44514</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1807,61 +1836,61 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2256,127 +2285,135 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M31" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="N31" s="3">
-        <v>4</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>4</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>3</v>
-      </c>
-      <c r="U31" s="3">
-        <v>2</v>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D32" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="G32" s="3">
         <v>0.5</v>
       </c>
       <c r="H32" s="3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
-        <v>0.8666666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="J32" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="K32" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="L32" s="3">
         <v>0.5</v>
       </c>
       <c r="M32" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="3">
         <v>0.8125</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N33" s="3">
         <v>0.8</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O33" s="3">
         <v>0.75</v>
       </c>
-      <c r="P32" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
+      <c r="U33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2387,7 +2424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2449,133 +2486,133 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -3009,152 +3046,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>4</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="P31" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T31" s="3">
-        <v>2</v>
-      </c>
-      <c r="U31" s="3">
-        <v>1</v>
-      </c>
-      <c r="V31" s="3">
-        <v>1</v>
-      </c>
-      <c r="W31" s="3">
-        <v>3</v>
-      </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>4</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AJ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="3">
-        <v>2</v>
+    <row r="30" spans="1:45">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="3">
         <v>0.5</v>
@@ -3172,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>1</v>
@@ -3184,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="P32" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
@@ -3196,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="S32" s="3">
-        <v>0.875</v>
+        <v>3.5</v>
       </c>
       <c r="T32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" s="3">
         <v>1</v>
@@ -3208,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X32" s="3">
         <v>1</v>
@@ -3232,16 +3143,16 @@
         <v>1</v>
       </c>
       <c r="AE32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF32" s="3">
         <v>0.5</v>
       </c>
       <c r="AG32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH32" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AI32" s="3">
         <v>0.5</v>
@@ -3274,6 +3185,140 @@
         <v>1</v>
       </c>
       <c r="AS32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1</v>
+      </c>
+      <c r="X33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3284,7 +3329,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3365,190 +3410,190 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:64">
@@ -3559,28 +3604,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:64">
@@ -3607,13 +3652,13 @@
         <v>9</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:64">
@@ -3624,19 +3669,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:64">
@@ -3655,22 +3700,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:64">
@@ -3689,31 +3734,31 @@
         <v>14</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:64">
@@ -3724,16 +3769,16 @@
         <v>15</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:64">
@@ -3744,16 +3789,16 @@
         <v>16</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:64">
@@ -3764,13 +3809,13 @@
         <v>17</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:64">
@@ -3781,16 +3826,16 @@
         <v>18</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:64">
@@ -3801,22 +3846,22 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AQ15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:64">
@@ -3843,25 +3888,25 @@
         <v>22</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AT18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AV18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:64">
@@ -3872,22 +3917,22 @@
         <v>23</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AS19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AT19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:64">
@@ -3898,40 +3943,40 @@
         <v>24</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AS20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AT20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AX20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AY20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AZ20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BA20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:64">
@@ -3942,43 +3987,43 @@
         <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AS21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AX21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AY21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AZ21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BA21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:64">
@@ -3997,19 +4042,19 @@
         <v>27</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BI23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BJ23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:64">
@@ -4028,7 +4073,7 @@
         <v>29</v>
       </c>
       <c r="AG25" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:64">
@@ -4047,10 +4092,10 @@
         <v>31</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BL27" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:64">
@@ -4061,10 +4106,10 @@
         <v>32</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BL28" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:64">
@@ -4075,194 +4120,202 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:64">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
+    <row r="30" spans="1:64">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
         <v>2</v>
       </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
         <v>7</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>2</v>
       </c>
-      <c r="O31" s="3">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3">
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
         <v>2</v>
       </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-      <c r="U31" s="3">
-        <v>1</v>
-      </c>
-      <c r="V31" s="3">
-        <v>1</v>
-      </c>
-      <c r="W31" s="3">
-        <v>1</v>
-      </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="3">
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+      <c r="T32" s="3">
+        <v>1</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3">
         <v>3</v>
       </c>
-      <c r="AD31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="3">
+      <c r="AD32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="3">
         <v>3</v>
       </c>
-      <c r="AH31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="3">
+      <c r="AH32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="3">
         <v>4</v>
       </c>
-      <c r="AM31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="3">
+      <c r="AM32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3">
         <v>4</v>
       </c>
-      <c r="AS31" s="3">
+      <c r="AS32" s="3">
         <v>4</v>
       </c>
-      <c r="AT31" s="3">
+      <c r="AT32" s="3">
         <v>4</v>
       </c>
-      <c r="AU31" s="3">
+      <c r="AU32" s="3">
         <v>2</v>
       </c>
-      <c r="AV31" s="3">
+      <c r="AV32" s="3">
         <v>2</v>
       </c>
-      <c r="AW31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX31" s="3">
+      <c r="AW32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="3">
         <v>2</v>
       </c>
-      <c r="AY31" s="3">
+      <c r="AY32" s="3">
         <v>2</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="AZ32" s="3">
         <v>2</v>
       </c>
-      <c r="BA31" s="3">
+      <c r="BA32" s="3">
         <v>2</v>
       </c>
-      <c r="BB31" s="3">
+      <c r="BB32" s="3">
         <v>2</v>
       </c>
-      <c r="BC31" s="3">
+      <c r="BC32" s="3">
         <v>2</v>
       </c>
-      <c r="BD31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BE31" s="3">
+      <c r="BD32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="3">
         <v>2</v>
       </c>
-      <c r="BF31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BG31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BI31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BK31" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="3">
+      <c r="BF32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4273,7 +4326,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4306,46 +4359,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -4356,19 +4409,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4379,7 +4432,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4398,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4412,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4431,13 +4484,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4456,10 +4509,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4470,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4481,7 +4534,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4492,16 +4545,16 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -4512,19 +4565,19 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4535,7 +4588,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4562,10 +4615,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -4576,10 +4629,10 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -4590,7 +4643,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4601,10 +4654,10 @@
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4623,10 +4676,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4645,10 +4698,10 @@
         <v>29</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4659,13 +4712,13 @@
         <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4676,13 +4729,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -4693,13 +4746,13 @@
         <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -4710,50 +4763,58 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="3">
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="3">
         <v>14</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>9</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H32" s="3">
         <v>3</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I32" s="3">
         <v>2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J32" s="3">
         <v>2</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <v>2</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O32" s="3">
         <v>2</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P32" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4764,7 +4825,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4795,40 +4856,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4839,7 +4900,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4850,7 +4911,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4861,7 +4922,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4888,7 +4949,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4907,10 +4968,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4921,10 +4982,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4943,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5018,7 +5079,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5045,7 +5106,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5056,10 +5117,10 @@
         <v>29</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5094,44 +5155,52 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <v>1</v>
       </c>
     </row>
